--- a/dane harcerek.xlsx
+++ b/dane harcerek.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="371">
   <si>
     <t>nazwisko, imię</t>
   </si>
@@ -928,21 +928,78 @@
     <t>zastęp</t>
   </si>
   <si>
+    <t>503382546</t>
+  </si>
+  <si>
+    <t>501398277</t>
+  </si>
+  <si>
     <t>Apatura Iris</t>
   </si>
   <si>
+    <t>503128205</t>
+  </si>
+  <si>
+    <t>533454908</t>
+  </si>
+  <si>
+    <t>692834642</t>
+  </si>
+  <si>
+    <t>500051035</t>
+  </si>
+  <si>
+    <t>506026200</t>
+  </si>
+  <si>
+    <t>513093073</t>
+  </si>
+  <si>
+    <t>691636163</t>
+  </si>
+  <si>
+    <t>504803478</t>
+  </si>
+  <si>
+    <t>609323525</t>
+  </si>
+  <si>
+    <t>605489447</t>
+  </si>
+  <si>
     <t>26.10.2013 r.</t>
   </si>
   <si>
     <t>13302605363</t>
   </si>
   <si>
+    <t>605056914</t>
+  </si>
+  <si>
+    <t>729968579</t>
+  </si>
+  <si>
     <t>czerwony barwnik</t>
   </si>
   <si>
     <t>Leśne Dzwonki</t>
   </si>
   <si>
+    <t>500073388</t>
+  </si>
+  <si>
+    <t>501835934</t>
+  </si>
+  <si>
+    <t>504248394</t>
+  </si>
+  <si>
+    <t>504394122</t>
+  </si>
+  <si>
+    <t>604658954</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anastazja </t>
   </si>
   <si>
@@ -967,6 +1024,12 @@
     <t>Artur</t>
   </si>
   <si>
+    <t>660542523</t>
+  </si>
+  <si>
+    <t>694136793</t>
+  </si>
+  <si>
     <t>radzkaa@o2.pl</t>
   </si>
   <si>
@@ -976,6 +1039,18 @@
     <t>12220308208</t>
   </si>
   <si>
+    <t>797426286</t>
+  </si>
+  <si>
+    <t>780118728</t>
+  </si>
+  <si>
+    <t>501416520</t>
+  </si>
+  <si>
+    <t>507218209</t>
+  </si>
+  <si>
     <t>Irysy</t>
   </si>
   <si>
@@ -985,10 +1060,73 @@
     <t>Ilona</t>
   </si>
   <si>
+    <t>571458136</t>
+  </si>
+  <si>
     <t>il-ona@wp.pl</t>
   </si>
   <si>
+    <t>512201287</t>
+  </si>
+  <si>
+    <t>504387678</t>
+  </si>
+  <si>
+    <t>693060486</t>
+  </si>
+  <si>
+    <t>601131894</t>
+  </si>
+  <si>
+    <t>602208814</t>
+  </si>
+  <si>
+    <t>605121073</t>
+  </si>
+  <si>
+    <t>668295778</t>
+  </si>
+  <si>
+    <t>606740557</t>
+  </si>
+  <si>
     <t>Stominajki</t>
+  </si>
+  <si>
+    <t>500203621</t>
+  </si>
+  <si>
+    <t>501642463</t>
+  </si>
+  <si>
+    <t>509360870</t>
+  </si>
+  <si>
+    <t>517140939</t>
+  </si>
+  <si>
+    <t>788571626</t>
+  </si>
+  <si>
+    <t>500389510</t>
+  </si>
+  <si>
+    <t>516441589</t>
+  </si>
+  <si>
+    <t>510794425</t>
+  </si>
+  <si>
+    <t>667222220</t>
+  </si>
+  <si>
+    <t>609189504</t>
+  </si>
+  <si>
+    <t>737495475</t>
+  </si>
+  <si>
+    <t>500895410</t>
   </si>
   <si>
     <t>XIV LO</t>
@@ -1015,7 +1153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,6 +1190,12 @@
         <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1059,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1096,6 +1240,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -9554,49 +9704,49 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="14" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9628,11 +9778,11 @@
       <c r="I2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="3">
-        <v>5.03382546E8</v>
-      </c>
-      <c r="K2" s="3">
-        <v>5.01398277E8</v>
+      <c r="J2" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>68</v>
@@ -9644,7 +9794,7 @@
         <v>70</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -9675,11 +9825,11 @@
       <c r="I3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="3">
-        <v>5.03128205E8</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5.33454908E8</v>
+      <c r="J3" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>78</v>
@@ -9691,7 +9841,7 @@
         <v>80</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -9722,11 +9872,11 @@
       <c r="I4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="3">
-        <v>6.92834642E8</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5.00051035E8</v>
+      <c r="J4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>88</v>
@@ -9738,7 +9888,7 @@
         <v>90</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
@@ -9769,11 +9919,11 @@
       <c r="I5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="3">
-        <v>5.060262E8</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5.13093073E8</v>
+      <c r="J5" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>97</v>
@@ -9785,7 +9935,7 @@
         <v>80</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6">
@@ -9816,11 +9966,11 @@
       <c r="I6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="3">
-        <v>6.91636163E8</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5.04803478E8</v>
+      <c r="J6" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>105</v>
@@ -9832,7 +9982,7 @@
         <v>90</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7">
@@ -9863,11 +10013,11 @@
       <c r="I7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="3">
-        <v>6.91636163E8</v>
-      </c>
-      <c r="K7" s="3">
-        <v>5.04803478E8</v>
+      <c r="J7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>105</v>
@@ -9879,7 +10029,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8">
@@ -9910,11 +10060,11 @@
       <c r="I8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="3">
-        <v>6.09323525E8</v>
-      </c>
-      <c r="K8" s="3">
-        <v>6.05489447E8</v>
+      <c r="J8" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>119</v>
@@ -9926,7 +10076,7 @@
         <v>120</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -9937,10 +10087,10 @@
         <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>63</v>
@@ -9957,23 +10107,23 @@
       <c r="I9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="3">
-        <v>6.05056914E8</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7.29968579E8</v>
+      <c r="J9" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>127</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>80</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10">
@@ -10004,11 +10154,11 @@
       <c r="I10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="3">
-        <v>6.05056914E8</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7.29968579E8</v>
+      <c r="J10" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>127</v>
@@ -10020,7 +10170,7 @@
         <v>80</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11">
@@ -10051,11 +10201,11 @@
       <c r="I11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="3">
-        <v>5.00073388E8</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5.01835934E8</v>
+      <c r="J11" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>137</v>
@@ -10064,7 +10214,7 @@
         <v>138</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
@@ -10095,11 +10245,11 @@
       <c r="I12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="3">
-        <v>5.00073388E8</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5.01835934E8</v>
+      <c r="J12" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>137</v>
@@ -10111,7 +10261,7 @@
         <v>80</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13">
@@ -10142,11 +10292,11 @@
       <c r="I13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J13" s="3">
-        <v>5.04248394E8</v>
-      </c>
-      <c r="K13" s="3">
-        <v>5.04394122E8</v>
+      <c r="J13" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>153</v>
@@ -10155,7 +10305,7 @@
         <v>80</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14">
@@ -10186,11 +10336,11 @@
       <c r="I14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="3">
-        <v>5.04248394E8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>5.04394122E8</v>
+      <c r="J14" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>153</v>
@@ -10202,7 +10352,7 @@
         <v>80</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15">
@@ -10233,10 +10383,10 @@
       <c r="I15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="3">
-        <v>6.04658954E8</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -10249,45 +10399,45 @@
         <v>165</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J16" s="3">
-        <v>6.60542523E8</v>
-      </c>
-      <c r="K16" s="3">
-        <v>6.94136793E8</v>
+        <v>334</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>69</v>
@@ -10296,7 +10446,7 @@
         <v>69</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17">
@@ -10307,34 +10457,34 @@
         <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6.60542523E8</v>
-      </c>
-      <c r="K17" s="3">
-        <v>6.94136793E8</v>
+        <v>334</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>251</v>
@@ -10343,7 +10493,7 @@
         <v>69</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18">
@@ -10374,11 +10524,11 @@
       <c r="I18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="3">
-        <v>7.97426286E8</v>
-      </c>
-      <c r="K18" s="3">
-        <v>7.80118728E8</v>
+      <c r="J18" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>176</v>
@@ -10387,7 +10537,7 @@
         <v>165</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19">
@@ -10418,11 +10568,11 @@
       <c r="I19" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J19" s="3">
-        <v>5.0141652E8</v>
-      </c>
-      <c r="K19" s="3">
-        <v>5.07218209E8</v>
+      <c r="J19" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>185</v>
@@ -10434,7 +10584,7 @@
         <v>187</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20">
@@ -10454,25 +10604,25 @@
         <v>148</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>150</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="3">
-        <v>5.71458136E8</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>205</v>
@@ -10481,7 +10631,7 @@
         <v>80</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21">
@@ -10501,25 +10651,25 @@
         <v>148</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="3">
-        <v>5.71458136E8</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>69</v>
@@ -10528,7 +10678,7 @@
         <v>80</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22">
@@ -10559,11 +10709,11 @@
       <c r="I22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J22" s="3">
-        <v>5.12201287E8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5.04387678E8</v>
+      <c r="J22" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>204</v>
@@ -10575,7 +10725,7 @@
         <v>165</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23">
@@ -10606,11 +10756,11 @@
       <c r="I23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J23" s="3">
-        <v>6.93060486E8</v>
-      </c>
-      <c r="K23" s="3">
-        <v>6.01131894E8</v>
+      <c r="J23" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>213</v>
@@ -10622,7 +10772,7 @@
         <v>165</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24">
@@ -10653,11 +10803,11 @@
       <c r="I24" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J24" s="3">
-        <v>6.02208814E8</v>
-      </c>
-      <c r="K24" s="3">
-        <v>6.05121073E8</v>
+      <c r="J24" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>221</v>
@@ -10669,7 +10819,7 @@
         <v>165</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25">
@@ -10700,11 +10850,11 @@
       <c r="I25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J25" s="3">
-        <v>6.68295778E8</v>
-      </c>
-      <c r="K25" s="3">
-        <v>6.06740557E8</v>
+      <c r="J25" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>236</v>
@@ -10716,7 +10866,7 @@
         <v>238</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26">
@@ -10747,11 +10897,11 @@
       <c r="I26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="3">
-        <v>5.00203621E8</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5.01642463E8</v>
+      <c r="J26" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>243</v>
@@ -10763,7 +10913,7 @@
         <v>238</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27">
@@ -10794,11 +10944,11 @@
       <c r="I27" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J27" s="3">
-        <v>5.0936087E8</v>
-      </c>
-      <c r="K27" s="3">
-        <v>5.17140939E8</v>
+      <c r="J27" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>250</v>
@@ -10810,7 +10960,7 @@
         <v>252</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28">
@@ -10841,10 +10991,10 @@
       <c r="I28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="3">
-        <v>7.88571626E8</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -10857,7 +11007,7 @@
         <v>252</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29">
@@ -10888,11 +11038,11 @@
       <c r="I29" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J29" s="3">
-        <v>5.0038951E8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>5.16441589E8</v>
+      <c r="J29" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>364</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>265</v>
@@ -10904,7 +11054,7 @@
         <v>252</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30">
@@ -10935,10 +11085,10 @@
       <c r="I30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="3">
-        <v>5.10794425E8</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -10948,7 +11098,7 @@
         <v>252</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31">
@@ -10979,11 +11129,11 @@
       <c r="I31" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J31" s="3">
-        <v>6.6722222E8</v>
-      </c>
-      <c r="K31" s="3">
-        <v>6.09189504E8</v>
+      <c r="J31" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>276</v>
@@ -10995,7 +11145,7 @@
         <v>278</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32">
@@ -11026,11 +11176,11 @@
       <c r="I32" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="J32" s="3">
-        <v>7.37495475E8</v>
-      </c>
-      <c r="K32" s="3">
-        <v>5.0089541E8</v>
+      <c r="J32" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>285</v>
@@ -11042,7 +11192,7 @@
         <v>278</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33">
@@ -11073,11 +11223,11 @@
       <c r="I33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="3">
-        <v>5.03382546E8</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5.01398277E8</v>
+      <c r="J33" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>68</v>
@@ -11120,11 +11270,11 @@
       <c r="I34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J34" s="3">
-        <v>5.00073388E8</v>
-      </c>
-      <c r="K34" s="3">
-        <v>5.01835934E8</v>
+      <c r="J34" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>137</v>
@@ -11133,11 +11283,3855 @@
         <v>251</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="35">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48">
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76">
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78">
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80">
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84">
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89">
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90">
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91">
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92">
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93">
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94">
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95">
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96">
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97">
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+    </row>
+    <row r="98">
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+    </row>
+    <row r="99">
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100">
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101">
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103">
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116">
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117">
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118">
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119">
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120">
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121">
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+    </row>
+    <row r="122">
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+    </row>
+    <row r="123">
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+    </row>
+    <row r="124">
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+    </row>
+    <row r="125">
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+    </row>
+    <row r="126">
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127">
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+    </row>
+    <row r="128">
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129">
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130">
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131">
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132">
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133">
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+    </row>
+    <row r="134">
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+    </row>
+    <row r="135">
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+    </row>
+    <row r="136">
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+    </row>
+    <row r="137">
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+    </row>
+    <row r="138">
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+    </row>
+    <row r="139">
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+    </row>
+    <row r="140">
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+    </row>
+    <row r="141">
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+    </row>
+    <row r="142">
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+    </row>
+    <row r="143">
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+    </row>
+    <row r="144">
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+    </row>
+    <row r="145">
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+    </row>
+    <row r="146">
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+    </row>
+    <row r="147">
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+    </row>
+    <row r="148">
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+    </row>
+    <row r="149">
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+    </row>
+    <row r="150">
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+    </row>
+    <row r="151">
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+    </row>
+    <row r="152">
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+    </row>
+    <row r="153">
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+    </row>
+    <row r="154">
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+    </row>
+    <row r="155">
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+    </row>
+    <row r="156">
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+    </row>
+    <row r="157">
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+    </row>
+    <row r="158">
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+    </row>
+    <row r="159">
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+    </row>
+    <row r="160">
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+    </row>
+    <row r="161">
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+    </row>
+    <row r="162">
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+    </row>
+    <row r="163">
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+    </row>
+    <row r="164">
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+    </row>
+    <row r="165">
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+    </row>
+    <row r="166">
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+    </row>
+    <row r="167">
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+    </row>
+    <row r="168">
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+    </row>
+    <row r="169">
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+    </row>
+    <row r="170">
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+    </row>
+    <row r="171">
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+    </row>
+    <row r="172">
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+    </row>
+    <row r="173">
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+    </row>
+    <row r="174">
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+    </row>
+    <row r="175">
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+    </row>
+    <row r="176">
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
+    </row>
+    <row r="177">
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
+    </row>
+    <row r="178">
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
+    </row>
+    <row r="179">
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+    </row>
+    <row r="180">
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+    </row>
+    <row r="181">
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+    </row>
+    <row r="182">
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+    </row>
+    <row r="183">
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
+    </row>
+    <row r="184">
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
+    </row>
+    <row r="185">
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
+    </row>
+    <row r="186">
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+    </row>
+    <row r="187">
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
+    </row>
+    <row r="188">
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+    </row>
+    <row r="189">
+      <c r="J189" s="8"/>
+      <c r="K189" s="8"/>
+    </row>
+    <row r="190">
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+    </row>
+    <row r="191">
+      <c r="J191" s="8"/>
+      <c r="K191" s="8"/>
+    </row>
+    <row r="192">
+      <c r="J192" s="8"/>
+      <c r="K192" s="8"/>
+    </row>
+    <row r="193">
+      <c r="J193" s="8"/>
+      <c r="K193" s="8"/>
+    </row>
+    <row r="194">
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
+    </row>
+    <row r="195">
+      <c r="J195" s="8"/>
+      <c r="K195" s="8"/>
+    </row>
+    <row r="196">
+      <c r="J196" s="8"/>
+      <c r="K196" s="8"/>
+    </row>
+    <row r="197">
+      <c r="J197" s="8"/>
+      <c r="K197" s="8"/>
+    </row>
+    <row r="198">
+      <c r="J198" s="8"/>
+      <c r="K198" s="8"/>
+    </row>
+    <row r="199">
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
+    </row>
+    <row r="200">
+      <c r="J200" s="8"/>
+      <c r="K200" s="8"/>
+    </row>
+    <row r="201">
+      <c r="J201" s="8"/>
+      <c r="K201" s="8"/>
+    </row>
+    <row r="202">
+      <c r="J202" s="8"/>
+      <c r="K202" s="8"/>
+    </row>
+    <row r="203">
+      <c r="J203" s="8"/>
+      <c r="K203" s="8"/>
+    </row>
+    <row r="204">
+      <c r="J204" s="8"/>
+      <c r="K204" s="8"/>
+    </row>
+    <row r="205">
+      <c r="J205" s="8"/>
+      <c r="K205" s="8"/>
+    </row>
+    <row r="206">
+      <c r="J206" s="8"/>
+      <c r="K206" s="8"/>
+    </row>
+    <row r="207">
+      <c r="J207" s="8"/>
+      <c r="K207" s="8"/>
+    </row>
+    <row r="208">
+      <c r="J208" s="8"/>
+      <c r="K208" s="8"/>
+    </row>
+    <row r="209">
+      <c r="J209" s="8"/>
+      <c r="K209" s="8"/>
+    </row>
+    <row r="210">
+      <c r="J210" s="8"/>
+      <c r="K210" s="8"/>
+    </row>
+    <row r="211">
+      <c r="J211" s="8"/>
+      <c r="K211" s="8"/>
+    </row>
+    <row r="212">
+      <c r="J212" s="8"/>
+      <c r="K212" s="8"/>
+    </row>
+    <row r="213">
+      <c r="J213" s="8"/>
+      <c r="K213" s="8"/>
+    </row>
+    <row r="214">
+      <c r="J214" s="8"/>
+      <c r="K214" s="8"/>
+    </row>
+    <row r="215">
+      <c r="J215" s="8"/>
+      <c r="K215" s="8"/>
+    </row>
+    <row r="216">
+      <c r="J216" s="8"/>
+      <c r="K216" s="8"/>
+    </row>
+    <row r="217">
+      <c r="J217" s="8"/>
+      <c r="K217" s="8"/>
+    </row>
+    <row r="218">
+      <c r="J218" s="8"/>
+      <c r="K218" s="8"/>
+    </row>
+    <row r="219">
+      <c r="J219" s="8"/>
+      <c r="K219" s="8"/>
+    </row>
+    <row r="220">
+      <c r="J220" s="8"/>
+      <c r="K220" s="8"/>
+    </row>
+    <row r="221">
+      <c r="J221" s="8"/>
+      <c r="K221" s="8"/>
+    </row>
+    <row r="222">
+      <c r="J222" s="8"/>
+      <c r="K222" s="8"/>
+    </row>
+    <row r="223">
+      <c r="J223" s="8"/>
+      <c r="K223" s="8"/>
+    </row>
+    <row r="224">
+      <c r="J224" s="8"/>
+      <c r="K224" s="8"/>
+    </row>
+    <row r="225">
+      <c r="J225" s="8"/>
+      <c r="K225" s="8"/>
+    </row>
+    <row r="226">
+      <c r="J226" s="8"/>
+      <c r="K226" s="8"/>
+    </row>
+    <row r="227">
+      <c r="J227" s="8"/>
+      <c r="K227" s="8"/>
+    </row>
+    <row r="228">
+      <c r="J228" s="8"/>
+      <c r="K228" s="8"/>
+    </row>
+    <row r="229">
+      <c r="J229" s="8"/>
+      <c r="K229" s="8"/>
+    </row>
+    <row r="230">
+      <c r="J230" s="8"/>
+      <c r="K230" s="8"/>
+    </row>
+    <row r="231">
+      <c r="J231" s="8"/>
+      <c r="K231" s="8"/>
+    </row>
+    <row r="232">
+      <c r="J232" s="8"/>
+      <c r="K232" s="8"/>
+    </row>
+    <row r="233">
+      <c r="J233" s="8"/>
+      <c r="K233" s="8"/>
+    </row>
+    <row r="234">
+      <c r="J234" s="8"/>
+      <c r="K234" s="8"/>
+    </row>
+    <row r="235">
+      <c r="J235" s="8"/>
+      <c r="K235" s="8"/>
+    </row>
+    <row r="236">
+      <c r="J236" s="8"/>
+      <c r="K236" s="8"/>
+    </row>
+    <row r="237">
+      <c r="J237" s="8"/>
+      <c r="K237" s="8"/>
+    </row>
+    <row r="238">
+      <c r="J238" s="8"/>
+      <c r="K238" s="8"/>
+    </row>
+    <row r="239">
+      <c r="J239" s="8"/>
+      <c r="K239" s="8"/>
+    </row>
+    <row r="240">
+      <c r="J240" s="8"/>
+      <c r="K240" s="8"/>
+    </row>
+    <row r="241">
+      <c r="J241" s="8"/>
+      <c r="K241" s="8"/>
+    </row>
+    <row r="242">
+      <c r="J242" s="8"/>
+      <c r="K242" s="8"/>
+    </row>
+    <row r="243">
+      <c r="J243" s="8"/>
+      <c r="K243" s="8"/>
+    </row>
+    <row r="244">
+      <c r="J244" s="8"/>
+      <c r="K244" s="8"/>
+    </row>
+    <row r="245">
+      <c r="J245" s="8"/>
+      <c r="K245" s="8"/>
+    </row>
+    <row r="246">
+      <c r="J246" s="8"/>
+      <c r="K246" s="8"/>
+    </row>
+    <row r="247">
+      <c r="J247" s="8"/>
+      <c r="K247" s="8"/>
+    </row>
+    <row r="248">
+      <c r="J248" s="8"/>
+      <c r="K248" s="8"/>
+    </row>
+    <row r="249">
+      <c r="J249" s="8"/>
+      <c r="K249" s="8"/>
+    </row>
+    <row r="250">
+      <c r="J250" s="8"/>
+      <c r="K250" s="8"/>
+    </row>
+    <row r="251">
+      <c r="J251" s="8"/>
+      <c r="K251" s="8"/>
+    </row>
+    <row r="252">
+      <c r="J252" s="8"/>
+      <c r="K252" s="8"/>
+    </row>
+    <row r="253">
+      <c r="J253" s="8"/>
+      <c r="K253" s="8"/>
+    </row>
+    <row r="254">
+      <c r="J254" s="8"/>
+      <c r="K254" s="8"/>
+    </row>
+    <row r="255">
+      <c r="J255" s="8"/>
+      <c r="K255" s="8"/>
+    </row>
+    <row r="256">
+      <c r="J256" s="8"/>
+      <c r="K256" s="8"/>
+    </row>
+    <row r="257">
+      <c r="J257" s="8"/>
+      <c r="K257" s="8"/>
+    </row>
+    <row r="258">
+      <c r="J258" s="8"/>
+      <c r="K258" s="8"/>
+    </row>
+    <row r="259">
+      <c r="J259" s="8"/>
+      <c r="K259" s="8"/>
+    </row>
+    <row r="260">
+      <c r="J260" s="8"/>
+      <c r="K260" s="8"/>
+    </row>
+    <row r="261">
+      <c r="J261" s="8"/>
+      <c r="K261" s="8"/>
+    </row>
+    <row r="262">
+      <c r="J262" s="8"/>
+      <c r="K262" s="8"/>
+    </row>
+    <row r="263">
+      <c r="J263" s="8"/>
+      <c r="K263" s="8"/>
+    </row>
+    <row r="264">
+      <c r="J264" s="8"/>
+      <c r="K264" s="8"/>
+    </row>
+    <row r="265">
+      <c r="J265" s="8"/>
+      <c r="K265" s="8"/>
+    </row>
+    <row r="266">
+      <c r="J266" s="8"/>
+      <c r="K266" s="8"/>
+    </row>
+    <row r="267">
+      <c r="J267" s="8"/>
+      <c r="K267" s="8"/>
+    </row>
+    <row r="268">
+      <c r="J268" s="8"/>
+      <c r="K268" s="8"/>
+    </row>
+    <row r="269">
+      <c r="J269" s="8"/>
+      <c r="K269" s="8"/>
+    </row>
+    <row r="270">
+      <c r="J270" s="8"/>
+      <c r="K270" s="8"/>
+    </row>
+    <row r="271">
+      <c r="J271" s="8"/>
+      <c r="K271" s="8"/>
+    </row>
+    <row r="272">
+      <c r="J272" s="8"/>
+      <c r="K272" s="8"/>
+    </row>
+    <row r="273">
+      <c r="J273" s="8"/>
+      <c r="K273" s="8"/>
+    </row>
+    <row r="274">
+      <c r="J274" s="8"/>
+      <c r="K274" s="8"/>
+    </row>
+    <row r="275">
+      <c r="J275" s="8"/>
+      <c r="K275" s="8"/>
+    </row>
+    <row r="276">
+      <c r="J276" s="8"/>
+      <c r="K276" s="8"/>
+    </row>
+    <row r="277">
+      <c r="J277" s="8"/>
+      <c r="K277" s="8"/>
+    </row>
+    <row r="278">
+      <c r="J278" s="8"/>
+      <c r="K278" s="8"/>
+    </row>
+    <row r="279">
+      <c r="J279" s="8"/>
+      <c r="K279" s="8"/>
+    </row>
+    <row r="280">
+      <c r="J280" s="8"/>
+      <c r="K280" s="8"/>
+    </row>
+    <row r="281">
+      <c r="J281" s="8"/>
+      <c r="K281" s="8"/>
+    </row>
+    <row r="282">
+      <c r="J282" s="8"/>
+      <c r="K282" s="8"/>
+    </row>
+    <row r="283">
+      <c r="J283" s="8"/>
+      <c r="K283" s="8"/>
+    </row>
+    <row r="284">
+      <c r="J284" s="8"/>
+      <c r="K284" s="8"/>
+    </row>
+    <row r="285">
+      <c r="J285" s="8"/>
+      <c r="K285" s="8"/>
+    </row>
+    <row r="286">
+      <c r="J286" s="8"/>
+      <c r="K286" s="8"/>
+    </row>
+    <row r="287">
+      <c r="J287" s="8"/>
+      <c r="K287" s="8"/>
+    </row>
+    <row r="288">
+      <c r="J288" s="8"/>
+      <c r="K288" s="8"/>
+    </row>
+    <row r="289">
+      <c r="J289" s="8"/>
+      <c r="K289" s="8"/>
+    </row>
+    <row r="290">
+      <c r="J290" s="8"/>
+      <c r="K290" s="8"/>
+    </row>
+    <row r="291">
+      <c r="J291" s="8"/>
+      <c r="K291" s="8"/>
+    </row>
+    <row r="292">
+      <c r="J292" s="8"/>
+      <c r="K292" s="8"/>
+    </row>
+    <row r="293">
+      <c r="J293" s="8"/>
+      <c r="K293" s="8"/>
+    </row>
+    <row r="294">
+      <c r="J294" s="8"/>
+      <c r="K294" s="8"/>
+    </row>
+    <row r="295">
+      <c r="J295" s="8"/>
+      <c r="K295" s="8"/>
+    </row>
+    <row r="296">
+      <c r="J296" s="8"/>
+      <c r="K296" s="8"/>
+    </row>
+    <row r="297">
+      <c r="J297" s="8"/>
+      <c r="K297" s="8"/>
+    </row>
+    <row r="298">
+      <c r="J298" s="8"/>
+      <c r="K298" s="8"/>
+    </row>
+    <row r="299">
+      <c r="J299" s="8"/>
+      <c r="K299" s="8"/>
+    </row>
+    <row r="300">
+      <c r="J300" s="8"/>
+      <c r="K300" s="8"/>
+    </row>
+    <row r="301">
+      <c r="J301" s="8"/>
+      <c r="K301" s="8"/>
+    </row>
+    <row r="302">
+      <c r="J302" s="8"/>
+      <c r="K302" s="8"/>
+    </row>
+    <row r="303">
+      <c r="J303" s="8"/>
+      <c r="K303" s="8"/>
+    </row>
+    <row r="304">
+      <c r="J304" s="8"/>
+      <c r="K304" s="8"/>
+    </row>
+    <row r="305">
+      <c r="J305" s="8"/>
+      <c r="K305" s="8"/>
+    </row>
+    <row r="306">
+      <c r="J306" s="8"/>
+      <c r="K306" s="8"/>
+    </row>
+    <row r="307">
+      <c r="J307" s="8"/>
+      <c r="K307" s="8"/>
+    </row>
+    <row r="308">
+      <c r="J308" s="8"/>
+      <c r="K308" s="8"/>
+    </row>
+    <row r="309">
+      <c r="J309" s="8"/>
+      <c r="K309" s="8"/>
+    </row>
+    <row r="310">
+      <c r="J310" s="8"/>
+      <c r="K310" s="8"/>
+    </row>
+    <row r="311">
+      <c r="J311" s="8"/>
+      <c r="K311" s="8"/>
+    </row>
+    <row r="312">
+      <c r="J312" s="8"/>
+      <c r="K312" s="8"/>
+    </row>
+    <row r="313">
+      <c r="J313" s="8"/>
+      <c r="K313" s="8"/>
+    </row>
+    <row r="314">
+      <c r="J314" s="8"/>
+      <c r="K314" s="8"/>
+    </row>
+    <row r="315">
+      <c r="J315" s="8"/>
+      <c r="K315" s="8"/>
+    </row>
+    <row r="316">
+      <c r="J316" s="8"/>
+      <c r="K316" s="8"/>
+    </row>
+    <row r="317">
+      <c r="J317" s="8"/>
+      <c r="K317" s="8"/>
+    </row>
+    <row r="318">
+      <c r="J318" s="8"/>
+      <c r="K318" s="8"/>
+    </row>
+    <row r="319">
+      <c r="J319" s="8"/>
+      <c r="K319" s="8"/>
+    </row>
+    <row r="320">
+      <c r="J320" s="8"/>
+      <c r="K320" s="8"/>
+    </row>
+    <row r="321">
+      <c r="J321" s="8"/>
+      <c r="K321" s="8"/>
+    </row>
+    <row r="322">
+      <c r="J322" s="8"/>
+      <c r="K322" s="8"/>
+    </row>
+    <row r="323">
+      <c r="J323" s="8"/>
+      <c r="K323" s="8"/>
+    </row>
+    <row r="324">
+      <c r="J324" s="8"/>
+      <c r="K324" s="8"/>
+    </row>
+    <row r="325">
+      <c r="J325" s="8"/>
+      <c r="K325" s="8"/>
+    </row>
+    <row r="326">
+      <c r="J326" s="8"/>
+      <c r="K326" s="8"/>
+    </row>
+    <row r="327">
+      <c r="J327" s="8"/>
+      <c r="K327" s="8"/>
+    </row>
+    <row r="328">
+      <c r="J328" s="8"/>
+      <c r="K328" s="8"/>
+    </row>
+    <row r="329">
+      <c r="J329" s="8"/>
+      <c r="K329" s="8"/>
+    </row>
+    <row r="330">
+      <c r="J330" s="8"/>
+      <c r="K330" s="8"/>
+    </row>
+    <row r="331">
+      <c r="J331" s="8"/>
+      <c r="K331" s="8"/>
+    </row>
+    <row r="332">
+      <c r="J332" s="8"/>
+      <c r="K332" s="8"/>
+    </row>
+    <row r="333">
+      <c r="J333" s="8"/>
+      <c r="K333" s="8"/>
+    </row>
+    <row r="334">
+      <c r="J334" s="8"/>
+      <c r="K334" s="8"/>
+    </row>
+    <row r="335">
+      <c r="J335" s="8"/>
+      <c r="K335" s="8"/>
+    </row>
+    <row r="336">
+      <c r="J336" s="8"/>
+      <c r="K336" s="8"/>
+    </row>
+    <row r="337">
+      <c r="J337" s="8"/>
+      <c r="K337" s="8"/>
+    </row>
+    <row r="338">
+      <c r="J338" s="8"/>
+      <c r="K338" s="8"/>
+    </row>
+    <row r="339">
+      <c r="J339" s="8"/>
+      <c r="K339" s="8"/>
+    </row>
+    <row r="340">
+      <c r="J340" s="8"/>
+      <c r="K340" s="8"/>
+    </row>
+    <row r="341">
+      <c r="J341" s="8"/>
+      <c r="K341" s="8"/>
+    </row>
+    <row r="342">
+      <c r="J342" s="8"/>
+      <c r="K342" s="8"/>
+    </row>
+    <row r="343">
+      <c r="J343" s="8"/>
+      <c r="K343" s="8"/>
+    </row>
+    <row r="344">
+      <c r="J344" s="8"/>
+      <c r="K344" s="8"/>
+    </row>
+    <row r="345">
+      <c r="J345" s="8"/>
+      <c r="K345" s="8"/>
+    </row>
+    <row r="346">
+      <c r="J346" s="8"/>
+      <c r="K346" s="8"/>
+    </row>
+    <row r="347">
+      <c r="J347" s="8"/>
+      <c r="K347" s="8"/>
+    </row>
+    <row r="348">
+      <c r="J348" s="8"/>
+      <c r="K348" s="8"/>
+    </row>
+    <row r="349">
+      <c r="J349" s="8"/>
+      <c r="K349" s="8"/>
+    </row>
+    <row r="350">
+      <c r="J350" s="8"/>
+      <c r="K350" s="8"/>
+    </row>
+    <row r="351">
+      <c r="J351" s="8"/>
+      <c r="K351" s="8"/>
+    </row>
+    <row r="352">
+      <c r="J352" s="8"/>
+      <c r="K352" s="8"/>
+    </row>
+    <row r="353">
+      <c r="J353" s="8"/>
+      <c r="K353" s="8"/>
+    </row>
+    <row r="354">
+      <c r="J354" s="8"/>
+      <c r="K354" s="8"/>
+    </row>
+    <row r="355">
+      <c r="J355" s="8"/>
+      <c r="K355" s="8"/>
+    </row>
+    <row r="356">
+      <c r="J356" s="8"/>
+      <c r="K356" s="8"/>
+    </row>
+    <row r="357">
+      <c r="J357" s="8"/>
+      <c r="K357" s="8"/>
+    </row>
+    <row r="358">
+      <c r="J358" s="8"/>
+      <c r="K358" s="8"/>
+    </row>
+    <row r="359">
+      <c r="J359" s="8"/>
+      <c r="K359" s="8"/>
+    </row>
+    <row r="360">
+      <c r="J360" s="8"/>
+      <c r="K360" s="8"/>
+    </row>
+    <row r="361">
+      <c r="J361" s="8"/>
+      <c r="K361" s="8"/>
+    </row>
+    <row r="362">
+      <c r="J362" s="8"/>
+      <c r="K362" s="8"/>
+    </row>
+    <row r="363">
+      <c r="J363" s="8"/>
+      <c r="K363" s="8"/>
+    </row>
+    <row r="364">
+      <c r="J364" s="8"/>
+      <c r="K364" s="8"/>
+    </row>
+    <row r="365">
+      <c r="J365" s="8"/>
+      <c r="K365" s="8"/>
+    </row>
+    <row r="366">
+      <c r="J366" s="8"/>
+      <c r="K366" s="8"/>
+    </row>
+    <row r="367">
+      <c r="J367" s="8"/>
+      <c r="K367" s="8"/>
+    </row>
+    <row r="368">
+      <c r="J368" s="8"/>
+      <c r="K368" s="8"/>
+    </row>
+    <row r="369">
+      <c r="J369" s="8"/>
+      <c r="K369" s="8"/>
+    </row>
+    <row r="370">
+      <c r="J370" s="8"/>
+      <c r="K370" s="8"/>
+    </row>
+    <row r="371">
+      <c r="J371" s="8"/>
+      <c r="K371" s="8"/>
+    </row>
+    <row r="372">
+      <c r="J372" s="8"/>
+      <c r="K372" s="8"/>
+    </row>
+    <row r="373">
+      <c r="J373" s="8"/>
+      <c r="K373" s="8"/>
+    </row>
+    <row r="374">
+      <c r="J374" s="8"/>
+      <c r="K374" s="8"/>
+    </row>
+    <row r="375">
+      <c r="J375" s="8"/>
+      <c r="K375" s="8"/>
+    </row>
+    <row r="376">
+      <c r="J376" s="8"/>
+      <c r="K376" s="8"/>
+    </row>
+    <row r="377">
+      <c r="J377" s="8"/>
+      <c r="K377" s="8"/>
+    </row>
+    <row r="378">
+      <c r="J378" s="8"/>
+      <c r="K378" s="8"/>
+    </row>
+    <row r="379">
+      <c r="J379" s="8"/>
+      <c r="K379" s="8"/>
+    </row>
+    <row r="380">
+      <c r="J380" s="8"/>
+      <c r="K380" s="8"/>
+    </row>
+    <row r="381">
+      <c r="J381" s="8"/>
+      <c r="K381" s="8"/>
+    </row>
+    <row r="382">
+      <c r="J382" s="8"/>
+      <c r="K382" s="8"/>
+    </row>
+    <row r="383">
+      <c r="J383" s="8"/>
+      <c r="K383" s="8"/>
+    </row>
+    <row r="384">
+      <c r="J384" s="8"/>
+      <c r="K384" s="8"/>
+    </row>
+    <row r="385">
+      <c r="J385" s="8"/>
+      <c r="K385" s="8"/>
+    </row>
+    <row r="386">
+      <c r="J386" s="8"/>
+      <c r="K386" s="8"/>
+    </row>
+    <row r="387">
+      <c r="J387" s="8"/>
+      <c r="K387" s="8"/>
+    </row>
+    <row r="388">
+      <c r="J388" s="8"/>
+      <c r="K388" s="8"/>
+    </row>
+    <row r="389">
+      <c r="J389" s="8"/>
+      <c r="K389" s="8"/>
+    </row>
+    <row r="390">
+      <c r="J390" s="8"/>
+      <c r="K390" s="8"/>
+    </row>
+    <row r="391">
+      <c r="J391" s="8"/>
+      <c r="K391" s="8"/>
+    </row>
+    <row r="392">
+      <c r="J392" s="8"/>
+      <c r="K392" s="8"/>
+    </row>
+    <row r="393">
+      <c r="J393" s="8"/>
+      <c r="K393" s="8"/>
+    </row>
+    <row r="394">
+      <c r="J394" s="8"/>
+      <c r="K394" s="8"/>
+    </row>
+    <row r="395">
+      <c r="J395" s="8"/>
+      <c r="K395" s="8"/>
+    </row>
+    <row r="396">
+      <c r="J396" s="8"/>
+      <c r="K396" s="8"/>
+    </row>
+    <row r="397">
+      <c r="J397" s="8"/>
+      <c r="K397" s="8"/>
+    </row>
+    <row r="398">
+      <c r="J398" s="8"/>
+      <c r="K398" s="8"/>
+    </row>
+    <row r="399">
+      <c r="J399" s="8"/>
+      <c r="K399" s="8"/>
+    </row>
+    <row r="400">
+      <c r="J400" s="8"/>
+      <c r="K400" s="8"/>
+    </row>
+    <row r="401">
+      <c r="J401" s="8"/>
+      <c r="K401" s="8"/>
+    </row>
+    <row r="402">
+      <c r="J402" s="8"/>
+      <c r="K402" s="8"/>
+    </row>
+    <row r="403">
+      <c r="J403" s="8"/>
+      <c r="K403" s="8"/>
+    </row>
+    <row r="404">
+      <c r="J404" s="8"/>
+      <c r="K404" s="8"/>
+    </row>
+    <row r="405">
+      <c r="J405" s="8"/>
+      <c r="K405" s="8"/>
+    </row>
+    <row r="406">
+      <c r="J406" s="8"/>
+      <c r="K406" s="8"/>
+    </row>
+    <row r="407">
+      <c r="J407" s="8"/>
+      <c r="K407" s="8"/>
+    </row>
+    <row r="408">
+      <c r="J408" s="8"/>
+      <c r="K408" s="8"/>
+    </row>
+    <row r="409">
+      <c r="J409" s="8"/>
+      <c r="K409" s="8"/>
+    </row>
+    <row r="410">
+      <c r="J410" s="8"/>
+      <c r="K410" s="8"/>
+    </row>
+    <row r="411">
+      <c r="J411" s="8"/>
+      <c r="K411" s="8"/>
+    </row>
+    <row r="412">
+      <c r="J412" s="8"/>
+      <c r="K412" s="8"/>
+    </row>
+    <row r="413">
+      <c r="J413" s="8"/>
+      <c r="K413" s="8"/>
+    </row>
+    <row r="414">
+      <c r="J414" s="8"/>
+      <c r="K414" s="8"/>
+    </row>
+    <row r="415">
+      <c r="J415" s="8"/>
+      <c r="K415" s="8"/>
+    </row>
+    <row r="416">
+      <c r="J416" s="8"/>
+      <c r="K416" s="8"/>
+    </row>
+    <row r="417">
+      <c r="J417" s="8"/>
+      <c r="K417" s="8"/>
+    </row>
+    <row r="418">
+      <c r="J418" s="8"/>
+      <c r="K418" s="8"/>
+    </row>
+    <row r="419">
+      <c r="J419" s="8"/>
+      <c r="K419" s="8"/>
+    </row>
+    <row r="420">
+      <c r="J420" s="8"/>
+      <c r="K420" s="8"/>
+    </row>
+    <row r="421">
+      <c r="J421" s="8"/>
+      <c r="K421" s="8"/>
+    </row>
+    <row r="422">
+      <c r="J422" s="8"/>
+      <c r="K422" s="8"/>
+    </row>
+    <row r="423">
+      <c r="J423" s="8"/>
+      <c r="K423" s="8"/>
+    </row>
+    <row r="424">
+      <c r="J424" s="8"/>
+      <c r="K424" s="8"/>
+    </row>
+    <row r="425">
+      <c r="J425" s="8"/>
+      <c r="K425" s="8"/>
+    </row>
+    <row r="426">
+      <c r="J426" s="8"/>
+      <c r="K426" s="8"/>
+    </row>
+    <row r="427">
+      <c r="J427" s="8"/>
+      <c r="K427" s="8"/>
+    </row>
+    <row r="428">
+      <c r="J428" s="8"/>
+      <c r="K428" s="8"/>
+    </row>
+    <row r="429">
+      <c r="J429" s="8"/>
+      <c r="K429" s="8"/>
+    </row>
+    <row r="430">
+      <c r="J430" s="8"/>
+      <c r="K430" s="8"/>
+    </row>
+    <row r="431">
+      <c r="J431" s="8"/>
+      <c r="K431" s="8"/>
+    </row>
+    <row r="432">
+      <c r="J432" s="8"/>
+      <c r="K432" s="8"/>
+    </row>
+    <row r="433">
+      <c r="J433" s="8"/>
+      <c r="K433" s="8"/>
+    </row>
+    <row r="434">
+      <c r="J434" s="8"/>
+      <c r="K434" s="8"/>
+    </row>
+    <row r="435">
+      <c r="J435" s="8"/>
+      <c r="K435" s="8"/>
+    </row>
+    <row r="436">
+      <c r="J436" s="8"/>
+      <c r="K436" s="8"/>
+    </row>
+    <row r="437">
+      <c r="J437" s="8"/>
+      <c r="K437" s="8"/>
+    </row>
+    <row r="438">
+      <c r="J438" s="8"/>
+      <c r="K438" s="8"/>
+    </row>
+    <row r="439">
+      <c r="J439" s="8"/>
+      <c r="K439" s="8"/>
+    </row>
+    <row r="440">
+      <c r="J440" s="8"/>
+      <c r="K440" s="8"/>
+    </row>
+    <row r="441">
+      <c r="J441" s="8"/>
+      <c r="K441" s="8"/>
+    </row>
+    <row r="442">
+      <c r="J442" s="8"/>
+      <c r="K442" s="8"/>
+    </row>
+    <row r="443">
+      <c r="J443" s="8"/>
+      <c r="K443" s="8"/>
+    </row>
+    <row r="444">
+      <c r="J444" s="8"/>
+      <c r="K444" s="8"/>
+    </row>
+    <row r="445">
+      <c r="J445" s="8"/>
+      <c r="K445" s="8"/>
+    </row>
+    <row r="446">
+      <c r="J446" s="8"/>
+      <c r="K446" s="8"/>
+    </row>
+    <row r="447">
+      <c r="J447" s="8"/>
+      <c r="K447" s="8"/>
+    </row>
+    <row r="448">
+      <c r="J448" s="8"/>
+      <c r="K448" s="8"/>
+    </row>
+    <row r="449">
+      <c r="J449" s="8"/>
+      <c r="K449" s="8"/>
+    </row>
+    <row r="450">
+      <c r="J450" s="8"/>
+      <c r="K450" s="8"/>
+    </row>
+    <row r="451">
+      <c r="J451" s="8"/>
+      <c r="K451" s="8"/>
+    </row>
+    <row r="452">
+      <c r="J452" s="8"/>
+      <c r="K452" s="8"/>
+    </row>
+    <row r="453">
+      <c r="J453" s="8"/>
+      <c r="K453" s="8"/>
+    </row>
+    <row r="454">
+      <c r="J454" s="8"/>
+      <c r="K454" s="8"/>
+    </row>
+    <row r="455">
+      <c r="J455" s="8"/>
+      <c r="K455" s="8"/>
+    </row>
+    <row r="456">
+      <c r="J456" s="8"/>
+      <c r="K456" s="8"/>
+    </row>
+    <row r="457">
+      <c r="J457" s="8"/>
+      <c r="K457" s="8"/>
+    </row>
+    <row r="458">
+      <c r="J458" s="8"/>
+      <c r="K458" s="8"/>
+    </row>
+    <row r="459">
+      <c r="J459" s="8"/>
+      <c r="K459" s="8"/>
+    </row>
+    <row r="460">
+      <c r="J460" s="8"/>
+      <c r="K460" s="8"/>
+    </row>
+    <row r="461">
+      <c r="J461" s="8"/>
+      <c r="K461" s="8"/>
+    </row>
+    <row r="462">
+      <c r="J462" s="8"/>
+      <c r="K462" s="8"/>
+    </row>
+    <row r="463">
+      <c r="J463" s="8"/>
+      <c r="K463" s="8"/>
+    </row>
+    <row r="464">
+      <c r="J464" s="8"/>
+      <c r="K464" s="8"/>
+    </row>
+    <row r="465">
+      <c r="J465" s="8"/>
+      <c r="K465" s="8"/>
+    </row>
+    <row r="466">
+      <c r="J466" s="8"/>
+      <c r="K466" s="8"/>
+    </row>
+    <row r="467">
+      <c r="J467" s="8"/>
+      <c r="K467" s="8"/>
+    </row>
+    <row r="468">
+      <c r="J468" s="8"/>
+      <c r="K468" s="8"/>
+    </row>
+    <row r="469">
+      <c r="J469" s="8"/>
+      <c r="K469" s="8"/>
+    </row>
+    <row r="470">
+      <c r="J470" s="8"/>
+      <c r="K470" s="8"/>
+    </row>
+    <row r="471">
+      <c r="J471" s="8"/>
+      <c r="K471" s="8"/>
+    </row>
+    <row r="472">
+      <c r="J472" s="8"/>
+      <c r="K472" s="8"/>
+    </row>
+    <row r="473">
+      <c r="J473" s="8"/>
+      <c r="K473" s="8"/>
+    </row>
+    <row r="474">
+      <c r="J474" s="8"/>
+      <c r="K474" s="8"/>
+    </row>
+    <row r="475">
+      <c r="J475" s="8"/>
+      <c r="K475" s="8"/>
+    </row>
+    <row r="476">
+      <c r="J476" s="8"/>
+      <c r="K476" s="8"/>
+    </row>
+    <row r="477">
+      <c r="J477" s="8"/>
+      <c r="K477" s="8"/>
+    </row>
+    <row r="478">
+      <c r="J478" s="8"/>
+      <c r="K478" s="8"/>
+    </row>
+    <row r="479">
+      <c r="J479" s="8"/>
+      <c r="K479" s="8"/>
+    </row>
+    <row r="480">
+      <c r="J480" s="8"/>
+      <c r="K480" s="8"/>
+    </row>
+    <row r="481">
+      <c r="J481" s="8"/>
+      <c r="K481" s="8"/>
+    </row>
+    <row r="482">
+      <c r="J482" s="8"/>
+      <c r="K482" s="8"/>
+    </row>
+    <row r="483">
+      <c r="J483" s="8"/>
+      <c r="K483" s="8"/>
+    </row>
+    <row r="484">
+      <c r="J484" s="8"/>
+      <c r="K484" s="8"/>
+    </row>
+    <row r="485">
+      <c r="J485" s="8"/>
+      <c r="K485" s="8"/>
+    </row>
+    <row r="486">
+      <c r="J486" s="8"/>
+      <c r="K486" s="8"/>
+    </row>
+    <row r="487">
+      <c r="J487" s="8"/>
+      <c r="K487" s="8"/>
+    </row>
+    <row r="488">
+      <c r="J488" s="8"/>
+      <c r="K488" s="8"/>
+    </row>
+    <row r="489">
+      <c r="J489" s="8"/>
+      <c r="K489" s="8"/>
+    </row>
+    <row r="490">
+      <c r="J490" s="8"/>
+      <c r="K490" s="8"/>
+    </row>
+    <row r="491">
+      <c r="J491" s="8"/>
+      <c r="K491" s="8"/>
+    </row>
+    <row r="492">
+      <c r="J492" s="8"/>
+      <c r="K492" s="8"/>
+    </row>
+    <row r="493">
+      <c r="J493" s="8"/>
+      <c r="K493" s="8"/>
+    </row>
+    <row r="494">
+      <c r="J494" s="8"/>
+      <c r="K494" s="8"/>
+    </row>
+    <row r="495">
+      <c r="J495" s="8"/>
+      <c r="K495" s="8"/>
+    </row>
+    <row r="496">
+      <c r="J496" s="8"/>
+      <c r="K496" s="8"/>
+    </row>
+    <row r="497">
+      <c r="J497" s="8"/>
+      <c r="K497" s="8"/>
+    </row>
+    <row r="498">
+      <c r="J498" s="8"/>
+      <c r="K498" s="8"/>
+    </row>
+    <row r="499">
+      <c r="J499" s="8"/>
+      <c r="K499" s="8"/>
+    </row>
+    <row r="500">
+      <c r="J500" s="8"/>
+      <c r="K500" s="8"/>
+    </row>
+    <row r="501">
+      <c r="J501" s="8"/>
+      <c r="K501" s="8"/>
+    </row>
+    <row r="502">
+      <c r="J502" s="8"/>
+      <c r="K502" s="8"/>
+    </row>
+    <row r="503">
+      <c r="J503" s="8"/>
+      <c r="K503" s="8"/>
+    </row>
+    <row r="504">
+      <c r="J504" s="8"/>
+      <c r="K504" s="8"/>
+    </row>
+    <row r="505">
+      <c r="J505" s="8"/>
+      <c r="K505" s="8"/>
+    </row>
+    <row r="506">
+      <c r="J506" s="8"/>
+      <c r="K506" s="8"/>
+    </row>
+    <row r="507">
+      <c r="J507" s="8"/>
+      <c r="K507" s="8"/>
+    </row>
+    <row r="508">
+      <c r="J508" s="8"/>
+      <c r="K508" s="8"/>
+    </row>
+    <row r="509">
+      <c r="J509" s="8"/>
+      <c r="K509" s="8"/>
+    </row>
+    <row r="510">
+      <c r="J510" s="8"/>
+      <c r="K510" s="8"/>
+    </row>
+    <row r="511">
+      <c r="J511" s="8"/>
+      <c r="K511" s="8"/>
+    </row>
+    <row r="512">
+      <c r="J512" s="8"/>
+      <c r="K512" s="8"/>
+    </row>
+    <row r="513">
+      <c r="J513" s="8"/>
+      <c r="K513" s="8"/>
+    </row>
+    <row r="514">
+      <c r="J514" s="8"/>
+      <c r="K514" s="8"/>
+    </row>
+    <row r="515">
+      <c r="J515" s="8"/>
+      <c r="K515" s="8"/>
+    </row>
+    <row r="516">
+      <c r="J516" s="8"/>
+      <c r="K516" s="8"/>
+    </row>
+    <row r="517">
+      <c r="J517" s="8"/>
+      <c r="K517" s="8"/>
+    </row>
+    <row r="518">
+      <c r="J518" s="8"/>
+      <c r="K518" s="8"/>
+    </row>
+    <row r="519">
+      <c r="J519" s="8"/>
+      <c r="K519" s="8"/>
+    </row>
+    <row r="520">
+      <c r="J520" s="8"/>
+      <c r="K520" s="8"/>
+    </row>
+    <row r="521">
+      <c r="J521" s="8"/>
+      <c r="K521" s="8"/>
+    </row>
+    <row r="522">
+      <c r="J522" s="8"/>
+      <c r="K522" s="8"/>
+    </row>
+    <row r="523">
+      <c r="J523" s="8"/>
+      <c r="K523" s="8"/>
+    </row>
+    <row r="524">
+      <c r="J524" s="8"/>
+      <c r="K524" s="8"/>
+    </row>
+    <row r="525">
+      <c r="J525" s="8"/>
+      <c r="K525" s="8"/>
+    </row>
+    <row r="526">
+      <c r="J526" s="8"/>
+      <c r="K526" s="8"/>
+    </row>
+    <row r="527">
+      <c r="J527" s="8"/>
+      <c r="K527" s="8"/>
+    </row>
+    <row r="528">
+      <c r="J528" s="8"/>
+      <c r="K528" s="8"/>
+    </row>
+    <row r="529">
+      <c r="J529" s="8"/>
+      <c r="K529" s="8"/>
+    </row>
+    <row r="530">
+      <c r="J530" s="8"/>
+      <c r="K530" s="8"/>
+    </row>
+    <row r="531">
+      <c r="J531" s="8"/>
+      <c r="K531" s="8"/>
+    </row>
+    <row r="532">
+      <c r="J532" s="8"/>
+      <c r="K532" s="8"/>
+    </row>
+    <row r="533">
+      <c r="J533" s="8"/>
+      <c r="K533" s="8"/>
+    </row>
+    <row r="534">
+      <c r="J534" s="8"/>
+      <c r="K534" s="8"/>
+    </row>
+    <row r="535">
+      <c r="J535" s="8"/>
+      <c r="K535" s="8"/>
+    </row>
+    <row r="536">
+      <c r="J536" s="8"/>
+      <c r="K536" s="8"/>
+    </row>
+    <row r="537">
+      <c r="J537" s="8"/>
+      <c r="K537" s="8"/>
+    </row>
+    <row r="538">
+      <c r="J538" s="8"/>
+      <c r="K538" s="8"/>
+    </row>
+    <row r="539">
+      <c r="J539" s="8"/>
+      <c r="K539" s="8"/>
+    </row>
+    <row r="540">
+      <c r="J540" s="8"/>
+      <c r="K540" s="8"/>
+    </row>
+    <row r="541">
+      <c r="J541" s="8"/>
+      <c r="K541" s="8"/>
+    </row>
+    <row r="542">
+      <c r="J542" s="8"/>
+      <c r="K542" s="8"/>
+    </row>
+    <row r="543">
+      <c r="J543" s="8"/>
+      <c r="K543" s="8"/>
+    </row>
+    <row r="544">
+      <c r="J544" s="8"/>
+      <c r="K544" s="8"/>
+    </row>
+    <row r="545">
+      <c r="J545" s="8"/>
+      <c r="K545" s="8"/>
+    </row>
+    <row r="546">
+      <c r="J546" s="8"/>
+      <c r="K546" s="8"/>
+    </row>
+    <row r="547">
+      <c r="J547" s="8"/>
+      <c r="K547" s="8"/>
+    </row>
+    <row r="548">
+      <c r="J548" s="8"/>
+      <c r="K548" s="8"/>
+    </row>
+    <row r="549">
+      <c r="J549" s="8"/>
+      <c r="K549" s="8"/>
+    </row>
+    <row r="550">
+      <c r="J550" s="8"/>
+      <c r="K550" s="8"/>
+    </row>
+    <row r="551">
+      <c r="J551" s="8"/>
+      <c r="K551" s="8"/>
+    </row>
+    <row r="552">
+      <c r="J552" s="8"/>
+      <c r="K552" s="8"/>
+    </row>
+    <row r="553">
+      <c r="J553" s="8"/>
+      <c r="K553" s="8"/>
+    </row>
+    <row r="554">
+      <c r="J554" s="8"/>
+      <c r="K554" s="8"/>
+    </row>
+    <row r="555">
+      <c r="J555" s="8"/>
+      <c r="K555" s="8"/>
+    </row>
+    <row r="556">
+      <c r="J556" s="8"/>
+      <c r="K556" s="8"/>
+    </row>
+    <row r="557">
+      <c r="J557" s="8"/>
+      <c r="K557" s="8"/>
+    </row>
+    <row r="558">
+      <c r="J558" s="8"/>
+      <c r="K558" s="8"/>
+    </row>
+    <row r="559">
+      <c r="J559" s="8"/>
+      <c r="K559" s="8"/>
+    </row>
+    <row r="560">
+      <c r="J560" s="8"/>
+      <c r="K560" s="8"/>
+    </row>
+    <row r="561">
+      <c r="J561" s="8"/>
+      <c r="K561" s="8"/>
+    </row>
+    <row r="562">
+      <c r="J562" s="8"/>
+      <c r="K562" s="8"/>
+    </row>
+    <row r="563">
+      <c r="J563" s="8"/>
+      <c r="K563" s="8"/>
+    </row>
+    <row r="564">
+      <c r="J564" s="8"/>
+      <c r="K564" s="8"/>
+    </row>
+    <row r="565">
+      <c r="J565" s="8"/>
+      <c r="K565" s="8"/>
+    </row>
+    <row r="566">
+      <c r="J566" s="8"/>
+      <c r="K566" s="8"/>
+    </row>
+    <row r="567">
+      <c r="J567" s="8"/>
+      <c r="K567" s="8"/>
+    </row>
+    <row r="568">
+      <c r="J568" s="8"/>
+      <c r="K568" s="8"/>
+    </row>
+    <row r="569">
+      <c r="J569" s="8"/>
+      <c r="K569" s="8"/>
+    </row>
+    <row r="570">
+      <c r="J570" s="8"/>
+      <c r="K570" s="8"/>
+    </row>
+    <row r="571">
+      <c r="J571" s="8"/>
+      <c r="K571" s="8"/>
+    </row>
+    <row r="572">
+      <c r="J572" s="8"/>
+      <c r="K572" s="8"/>
+    </row>
+    <row r="573">
+      <c r="J573" s="8"/>
+      <c r="K573" s="8"/>
+    </row>
+    <row r="574">
+      <c r="J574" s="8"/>
+      <c r="K574" s="8"/>
+    </row>
+    <row r="575">
+      <c r="J575" s="8"/>
+      <c r="K575" s="8"/>
+    </row>
+    <row r="576">
+      <c r="J576" s="8"/>
+      <c r="K576" s="8"/>
+    </row>
+    <row r="577">
+      <c r="J577" s="8"/>
+      <c r="K577" s="8"/>
+    </row>
+    <row r="578">
+      <c r="J578" s="8"/>
+      <c r="K578" s="8"/>
+    </row>
+    <row r="579">
+      <c r="J579" s="8"/>
+      <c r="K579" s="8"/>
+    </row>
+    <row r="580">
+      <c r="J580" s="8"/>
+      <c r="K580" s="8"/>
+    </row>
+    <row r="581">
+      <c r="J581" s="8"/>
+      <c r="K581" s="8"/>
+    </row>
+    <row r="582">
+      <c r="J582" s="8"/>
+      <c r="K582" s="8"/>
+    </row>
+    <row r="583">
+      <c r="J583" s="8"/>
+      <c r="K583" s="8"/>
+    </row>
+    <row r="584">
+      <c r="J584" s="8"/>
+      <c r="K584" s="8"/>
+    </row>
+    <row r="585">
+      <c r="J585" s="8"/>
+      <c r="K585" s="8"/>
+    </row>
+    <row r="586">
+      <c r="J586" s="8"/>
+      <c r="K586" s="8"/>
+    </row>
+    <row r="587">
+      <c r="J587" s="8"/>
+      <c r="K587" s="8"/>
+    </row>
+    <row r="588">
+      <c r="J588" s="8"/>
+      <c r="K588" s="8"/>
+    </row>
+    <row r="589">
+      <c r="J589" s="8"/>
+      <c r="K589" s="8"/>
+    </row>
+    <row r="590">
+      <c r="J590" s="8"/>
+      <c r="K590" s="8"/>
+    </row>
+    <row r="591">
+      <c r="J591" s="8"/>
+      <c r="K591" s="8"/>
+    </row>
+    <row r="592">
+      <c r="J592" s="8"/>
+      <c r="K592" s="8"/>
+    </row>
+    <row r="593">
+      <c r="J593" s="8"/>
+      <c r="K593" s="8"/>
+    </row>
+    <row r="594">
+      <c r="J594" s="8"/>
+      <c r="K594" s="8"/>
+    </row>
+    <row r="595">
+      <c r="J595" s="8"/>
+      <c r="K595" s="8"/>
+    </row>
+    <row r="596">
+      <c r="J596" s="8"/>
+      <c r="K596" s="8"/>
+    </row>
+    <row r="597">
+      <c r="J597" s="8"/>
+      <c r="K597" s="8"/>
+    </row>
+    <row r="598">
+      <c r="J598" s="8"/>
+      <c r="K598" s="8"/>
+    </row>
+    <row r="599">
+      <c r="J599" s="8"/>
+      <c r="K599" s="8"/>
+    </row>
+    <row r="600">
+      <c r="J600" s="8"/>
+      <c r="K600" s="8"/>
+    </row>
+    <row r="601">
+      <c r="J601" s="8"/>
+      <c r="K601" s="8"/>
+    </row>
+    <row r="602">
+      <c r="J602" s="8"/>
+      <c r="K602" s="8"/>
+    </row>
+    <row r="603">
+      <c r="J603" s="8"/>
+      <c r="K603" s="8"/>
+    </row>
+    <row r="604">
+      <c r="J604" s="8"/>
+      <c r="K604" s="8"/>
+    </row>
+    <row r="605">
+      <c r="J605" s="8"/>
+      <c r="K605" s="8"/>
+    </row>
+    <row r="606">
+      <c r="J606" s="8"/>
+      <c r="K606" s="8"/>
+    </row>
+    <row r="607">
+      <c r="J607" s="8"/>
+      <c r="K607" s="8"/>
+    </row>
+    <row r="608">
+      <c r="J608" s="8"/>
+      <c r="K608" s="8"/>
+    </row>
+    <row r="609">
+      <c r="J609" s="8"/>
+      <c r="K609" s="8"/>
+    </row>
+    <row r="610">
+      <c r="J610" s="8"/>
+      <c r="K610" s="8"/>
+    </row>
+    <row r="611">
+      <c r="J611" s="8"/>
+      <c r="K611" s="8"/>
+    </row>
+    <row r="612">
+      <c r="J612" s="8"/>
+      <c r="K612" s="8"/>
+    </row>
+    <row r="613">
+      <c r="J613" s="8"/>
+      <c r="K613" s="8"/>
+    </row>
+    <row r="614">
+      <c r="J614" s="8"/>
+      <c r="K614" s="8"/>
+    </row>
+    <row r="615">
+      <c r="J615" s="8"/>
+      <c r="K615" s="8"/>
+    </row>
+    <row r="616">
+      <c r="J616" s="8"/>
+      <c r="K616" s="8"/>
+    </row>
+    <row r="617">
+      <c r="J617" s="8"/>
+      <c r="K617" s="8"/>
+    </row>
+    <row r="618">
+      <c r="J618" s="8"/>
+      <c r="K618" s="8"/>
+    </row>
+    <row r="619">
+      <c r="J619" s="8"/>
+      <c r="K619" s="8"/>
+    </row>
+    <row r="620">
+      <c r="J620" s="8"/>
+      <c r="K620" s="8"/>
+    </row>
+    <row r="621">
+      <c r="J621" s="8"/>
+      <c r="K621" s="8"/>
+    </row>
+    <row r="622">
+      <c r="J622" s="8"/>
+      <c r="K622" s="8"/>
+    </row>
+    <row r="623">
+      <c r="J623" s="8"/>
+      <c r="K623" s="8"/>
+    </row>
+    <row r="624">
+      <c r="J624" s="8"/>
+      <c r="K624" s="8"/>
+    </row>
+    <row r="625">
+      <c r="J625" s="8"/>
+      <c r="K625" s="8"/>
+    </row>
+    <row r="626">
+      <c r="J626" s="8"/>
+      <c r="K626" s="8"/>
+    </row>
+    <row r="627">
+      <c r="J627" s="8"/>
+      <c r="K627" s="8"/>
+    </row>
+    <row r="628">
+      <c r="J628" s="8"/>
+      <c r="K628" s="8"/>
+    </row>
+    <row r="629">
+      <c r="J629" s="8"/>
+      <c r="K629" s="8"/>
+    </row>
+    <row r="630">
+      <c r="J630" s="8"/>
+      <c r="K630" s="8"/>
+    </row>
+    <row r="631">
+      <c r="J631" s="8"/>
+      <c r="K631" s="8"/>
+    </row>
+    <row r="632">
+      <c r="J632" s="8"/>
+      <c r="K632" s="8"/>
+    </row>
+    <row r="633">
+      <c r="J633" s="8"/>
+      <c r="K633" s="8"/>
+    </row>
+    <row r="634">
+      <c r="J634" s="8"/>
+      <c r="K634" s="8"/>
+    </row>
+    <row r="635">
+      <c r="J635" s="8"/>
+      <c r="K635" s="8"/>
+    </row>
+    <row r="636">
+      <c r="J636" s="8"/>
+      <c r="K636" s="8"/>
+    </row>
+    <row r="637">
+      <c r="J637" s="8"/>
+      <c r="K637" s="8"/>
+    </row>
+    <row r="638">
+      <c r="J638" s="8"/>
+      <c r="K638" s="8"/>
+    </row>
+    <row r="639">
+      <c r="J639" s="8"/>
+      <c r="K639" s="8"/>
+    </row>
+    <row r="640">
+      <c r="J640" s="8"/>
+      <c r="K640" s="8"/>
+    </row>
+    <row r="641">
+      <c r="J641" s="8"/>
+      <c r="K641" s="8"/>
+    </row>
+    <row r="642">
+      <c r="J642" s="8"/>
+      <c r="K642" s="8"/>
+    </row>
+    <row r="643">
+      <c r="J643" s="8"/>
+      <c r="K643" s="8"/>
+    </row>
+    <row r="644">
+      <c r="J644" s="8"/>
+      <c r="K644" s="8"/>
+    </row>
+    <row r="645">
+      <c r="J645" s="8"/>
+      <c r="K645" s="8"/>
+    </row>
+    <row r="646">
+      <c r="J646" s="8"/>
+      <c r="K646" s="8"/>
+    </row>
+    <row r="647">
+      <c r="J647" s="8"/>
+      <c r="K647" s="8"/>
+    </row>
+    <row r="648">
+      <c r="J648" s="8"/>
+      <c r="K648" s="8"/>
+    </row>
+    <row r="649">
+      <c r="J649" s="8"/>
+      <c r="K649" s="8"/>
+    </row>
+    <row r="650">
+      <c r="J650" s="8"/>
+      <c r="K650" s="8"/>
+    </row>
+    <row r="651">
+      <c r="J651" s="8"/>
+      <c r="K651" s="8"/>
+    </row>
+    <row r="652">
+      <c r="J652" s="8"/>
+      <c r="K652" s="8"/>
+    </row>
+    <row r="653">
+      <c r="J653" s="8"/>
+      <c r="K653" s="8"/>
+    </row>
+    <row r="654">
+      <c r="J654" s="8"/>
+      <c r="K654" s="8"/>
+    </row>
+    <row r="655">
+      <c r="J655" s="8"/>
+      <c r="K655" s="8"/>
+    </row>
+    <row r="656">
+      <c r="J656" s="8"/>
+      <c r="K656" s="8"/>
+    </row>
+    <row r="657">
+      <c r="J657" s="8"/>
+      <c r="K657" s="8"/>
+    </row>
+    <row r="658">
+      <c r="J658" s="8"/>
+      <c r="K658" s="8"/>
+    </row>
+    <row r="659">
+      <c r="J659" s="8"/>
+      <c r="K659" s="8"/>
+    </row>
+    <row r="660">
+      <c r="J660" s="8"/>
+      <c r="K660" s="8"/>
+    </row>
+    <row r="661">
+      <c r="J661" s="8"/>
+      <c r="K661" s="8"/>
+    </row>
+    <row r="662">
+      <c r="J662" s="8"/>
+      <c r="K662" s="8"/>
+    </row>
+    <row r="663">
+      <c r="J663" s="8"/>
+      <c r="K663" s="8"/>
+    </row>
+    <row r="664">
+      <c r="J664" s="8"/>
+      <c r="K664" s="8"/>
+    </row>
+    <row r="665">
+      <c r="J665" s="8"/>
+      <c r="K665" s="8"/>
+    </row>
+    <row r="666">
+      <c r="J666" s="8"/>
+      <c r="K666" s="8"/>
+    </row>
+    <row r="667">
+      <c r="J667" s="8"/>
+      <c r="K667" s="8"/>
+    </row>
+    <row r="668">
+      <c r="J668" s="8"/>
+      <c r="K668" s="8"/>
+    </row>
+    <row r="669">
+      <c r="J669" s="8"/>
+      <c r="K669" s="8"/>
+    </row>
+    <row r="670">
+      <c r="J670" s="8"/>
+      <c r="K670" s="8"/>
+    </row>
+    <row r="671">
+      <c r="J671" s="8"/>
+      <c r="K671" s="8"/>
+    </row>
+    <row r="672">
+      <c r="J672" s="8"/>
+      <c r="K672" s="8"/>
+    </row>
+    <row r="673">
+      <c r="J673" s="8"/>
+      <c r="K673" s="8"/>
+    </row>
+    <row r="674">
+      <c r="J674" s="8"/>
+      <c r="K674" s="8"/>
+    </row>
+    <row r="675">
+      <c r="J675" s="8"/>
+      <c r="K675" s="8"/>
+    </row>
+    <row r="676">
+      <c r="J676" s="8"/>
+      <c r="K676" s="8"/>
+    </row>
+    <row r="677">
+      <c r="J677" s="8"/>
+      <c r="K677" s="8"/>
+    </row>
+    <row r="678">
+      <c r="J678" s="8"/>
+      <c r="K678" s="8"/>
+    </row>
+    <row r="679">
+      <c r="J679" s="8"/>
+      <c r="K679" s="8"/>
+    </row>
+    <row r="680">
+      <c r="J680" s="8"/>
+      <c r="K680" s="8"/>
+    </row>
+    <row r="681">
+      <c r="J681" s="8"/>
+      <c r="K681" s="8"/>
+    </row>
+    <row r="682">
+      <c r="J682" s="8"/>
+      <c r="K682" s="8"/>
+    </row>
+    <row r="683">
+      <c r="J683" s="8"/>
+      <c r="K683" s="8"/>
+    </row>
+    <row r="684">
+      <c r="J684" s="8"/>
+      <c r="K684" s="8"/>
+    </row>
+    <row r="685">
+      <c r="J685" s="8"/>
+      <c r="K685" s="8"/>
+    </row>
+    <row r="686">
+      <c r="J686" s="8"/>
+      <c r="K686" s="8"/>
+    </row>
+    <row r="687">
+      <c r="J687" s="8"/>
+      <c r="K687" s="8"/>
+    </row>
+    <row r="688">
+      <c r="J688" s="8"/>
+      <c r="K688" s="8"/>
+    </row>
+    <row r="689">
+      <c r="J689" s="8"/>
+      <c r="K689" s="8"/>
+    </row>
+    <row r="690">
+      <c r="J690" s="8"/>
+      <c r="K690" s="8"/>
+    </row>
+    <row r="691">
+      <c r="J691" s="8"/>
+      <c r="K691" s="8"/>
+    </row>
+    <row r="692">
+      <c r="J692" s="8"/>
+      <c r="K692" s="8"/>
+    </row>
+    <row r="693">
+      <c r="J693" s="8"/>
+      <c r="K693" s="8"/>
+    </row>
+    <row r="694">
+      <c r="J694" s="8"/>
+      <c r="K694" s="8"/>
+    </row>
+    <row r="695">
+      <c r="J695" s="8"/>
+      <c r="K695" s="8"/>
+    </row>
+    <row r="696">
+      <c r="J696" s="8"/>
+      <c r="K696" s="8"/>
+    </row>
+    <row r="697">
+      <c r="J697" s="8"/>
+      <c r="K697" s="8"/>
+    </row>
+    <row r="698">
+      <c r="J698" s="8"/>
+      <c r="K698" s="8"/>
+    </row>
+    <row r="699">
+      <c r="J699" s="8"/>
+      <c r="K699" s="8"/>
+    </row>
+    <row r="700">
+      <c r="J700" s="8"/>
+      <c r="K700" s="8"/>
+    </row>
+    <row r="701">
+      <c r="J701" s="8"/>
+      <c r="K701" s="8"/>
+    </row>
+    <row r="702">
+      <c r="J702" s="8"/>
+      <c r="K702" s="8"/>
+    </row>
+    <row r="703">
+      <c r="J703" s="8"/>
+      <c r="K703" s="8"/>
+    </row>
+    <row r="704">
+      <c r="J704" s="8"/>
+      <c r="K704" s="8"/>
+    </row>
+    <row r="705">
+      <c r="J705" s="8"/>
+      <c r="K705" s="8"/>
+    </row>
+    <row r="706">
+      <c r="J706" s="8"/>
+      <c r="K706" s="8"/>
+    </row>
+    <row r="707">
+      <c r="J707" s="8"/>
+      <c r="K707" s="8"/>
+    </row>
+    <row r="708">
+      <c r="J708" s="8"/>
+      <c r="K708" s="8"/>
+    </row>
+    <row r="709">
+      <c r="J709" s="8"/>
+      <c r="K709" s="8"/>
+    </row>
+    <row r="710">
+      <c r="J710" s="8"/>
+      <c r="K710" s="8"/>
+    </row>
+    <row r="711">
+      <c r="J711" s="8"/>
+      <c r="K711" s="8"/>
+    </row>
+    <row r="712">
+      <c r="J712" s="8"/>
+      <c r="K712" s="8"/>
+    </row>
+    <row r="713">
+      <c r="J713" s="8"/>
+      <c r="K713" s="8"/>
+    </row>
+    <row r="714">
+      <c r="J714" s="8"/>
+      <c r="K714" s="8"/>
+    </row>
+    <row r="715">
+      <c r="J715" s="8"/>
+      <c r="K715" s="8"/>
+    </row>
+    <row r="716">
+      <c r="J716" s="8"/>
+      <c r="K716" s="8"/>
+    </row>
+    <row r="717">
+      <c r="J717" s="8"/>
+      <c r="K717" s="8"/>
+    </row>
+    <row r="718">
+      <c r="J718" s="8"/>
+      <c r="K718" s="8"/>
+    </row>
+    <row r="719">
+      <c r="J719" s="8"/>
+      <c r="K719" s="8"/>
+    </row>
+    <row r="720">
+      <c r="J720" s="8"/>
+      <c r="K720" s="8"/>
+    </row>
+    <row r="721">
+      <c r="J721" s="8"/>
+      <c r="K721" s="8"/>
+    </row>
+    <row r="722">
+      <c r="J722" s="8"/>
+      <c r="K722" s="8"/>
+    </row>
+    <row r="723">
+      <c r="J723" s="8"/>
+      <c r="K723" s="8"/>
+    </row>
+    <row r="724">
+      <c r="J724" s="8"/>
+      <c r="K724" s="8"/>
+    </row>
+    <row r="725">
+      <c r="J725" s="8"/>
+      <c r="K725" s="8"/>
+    </row>
+    <row r="726">
+      <c r="J726" s="8"/>
+      <c r="K726" s="8"/>
+    </row>
+    <row r="727">
+      <c r="J727" s="8"/>
+      <c r="K727" s="8"/>
+    </row>
+    <row r="728">
+      <c r="J728" s="8"/>
+      <c r="K728" s="8"/>
+    </row>
+    <row r="729">
+      <c r="J729" s="8"/>
+      <c r="K729" s="8"/>
+    </row>
+    <row r="730">
+      <c r="J730" s="8"/>
+      <c r="K730" s="8"/>
+    </row>
+    <row r="731">
+      <c r="J731" s="8"/>
+      <c r="K731" s="8"/>
+    </row>
+    <row r="732">
+      <c r="J732" s="8"/>
+      <c r="K732" s="8"/>
+    </row>
+    <row r="733">
+      <c r="J733" s="8"/>
+      <c r="K733" s="8"/>
+    </row>
+    <row r="734">
+      <c r="J734" s="8"/>
+      <c r="K734" s="8"/>
+    </row>
+    <row r="735">
+      <c r="J735" s="8"/>
+      <c r="K735" s="8"/>
+    </row>
+    <row r="736">
+      <c r="J736" s="8"/>
+      <c r="K736" s="8"/>
+    </row>
+    <row r="737">
+      <c r="J737" s="8"/>
+      <c r="K737" s="8"/>
+    </row>
+    <row r="738">
+      <c r="J738" s="8"/>
+      <c r="K738" s="8"/>
+    </row>
+    <row r="739">
+      <c r="J739" s="8"/>
+      <c r="K739" s="8"/>
+    </row>
+    <row r="740">
+      <c r="J740" s="8"/>
+      <c r="K740" s="8"/>
+    </row>
+    <row r="741">
+      <c r="J741" s="8"/>
+      <c r="K741" s="8"/>
+    </row>
+    <row r="742">
+      <c r="J742" s="8"/>
+      <c r="K742" s="8"/>
+    </row>
+    <row r="743">
+      <c r="J743" s="8"/>
+      <c r="K743" s="8"/>
+    </row>
+    <row r="744">
+      <c r="J744" s="8"/>
+      <c r="K744" s="8"/>
+    </row>
+    <row r="745">
+      <c r="J745" s="8"/>
+      <c r="K745" s="8"/>
+    </row>
+    <row r="746">
+      <c r="J746" s="8"/>
+      <c r="K746" s="8"/>
+    </row>
+    <row r="747">
+      <c r="J747" s="8"/>
+      <c r="K747" s="8"/>
+    </row>
+    <row r="748">
+      <c r="J748" s="8"/>
+      <c r="K748" s="8"/>
+    </row>
+    <row r="749">
+      <c r="J749" s="8"/>
+      <c r="K749" s="8"/>
+    </row>
+    <row r="750">
+      <c r="J750" s="8"/>
+      <c r="K750" s="8"/>
+    </row>
+    <row r="751">
+      <c r="J751" s="8"/>
+      <c r="K751" s="8"/>
+    </row>
+    <row r="752">
+      <c r="J752" s="8"/>
+      <c r="K752" s="8"/>
+    </row>
+    <row r="753">
+      <c r="J753" s="8"/>
+      <c r="K753" s="8"/>
+    </row>
+    <row r="754">
+      <c r="J754" s="8"/>
+      <c r="K754" s="8"/>
+    </row>
+    <row r="755">
+      <c r="J755" s="8"/>
+      <c r="K755" s="8"/>
+    </row>
+    <row r="756">
+      <c r="J756" s="8"/>
+      <c r="K756" s="8"/>
+    </row>
+    <row r="757">
+      <c r="J757" s="8"/>
+      <c r="K757" s="8"/>
+    </row>
+    <row r="758">
+      <c r="J758" s="8"/>
+      <c r="K758" s="8"/>
+    </row>
+    <row r="759">
+      <c r="J759" s="8"/>
+      <c r="K759" s="8"/>
+    </row>
+    <row r="760">
+      <c r="J760" s="8"/>
+      <c r="K760" s="8"/>
+    </row>
+    <row r="761">
+      <c r="J761" s="8"/>
+      <c r="K761" s="8"/>
+    </row>
+    <row r="762">
+      <c r="J762" s="8"/>
+      <c r="K762" s="8"/>
+    </row>
+    <row r="763">
+      <c r="J763" s="8"/>
+      <c r="K763" s="8"/>
+    </row>
+    <row r="764">
+      <c r="J764" s="8"/>
+      <c r="K764" s="8"/>
+    </row>
+    <row r="765">
+      <c r="J765" s="8"/>
+      <c r="K765" s="8"/>
+    </row>
+    <row r="766">
+      <c r="J766" s="8"/>
+      <c r="K766" s="8"/>
+    </row>
+    <row r="767">
+      <c r="J767" s="8"/>
+      <c r="K767" s="8"/>
+    </row>
+    <row r="768">
+      <c r="J768" s="8"/>
+      <c r="K768" s="8"/>
+    </row>
+    <row r="769">
+      <c r="J769" s="8"/>
+      <c r="K769" s="8"/>
+    </row>
+    <row r="770">
+      <c r="J770" s="8"/>
+      <c r="K770" s="8"/>
+    </row>
+    <row r="771">
+      <c r="J771" s="8"/>
+      <c r="K771" s="8"/>
+    </row>
+    <row r="772">
+      <c r="J772" s="8"/>
+      <c r="K772" s="8"/>
+    </row>
+    <row r="773">
+      <c r="J773" s="8"/>
+      <c r="K773" s="8"/>
+    </row>
+    <row r="774">
+      <c r="J774" s="8"/>
+      <c r="K774" s="8"/>
+    </row>
+    <row r="775">
+      <c r="J775" s="8"/>
+      <c r="K775" s="8"/>
+    </row>
+    <row r="776">
+      <c r="J776" s="8"/>
+      <c r="K776" s="8"/>
+    </row>
+    <row r="777">
+      <c r="J777" s="8"/>
+      <c r="K777" s="8"/>
+    </row>
+    <row r="778">
+      <c r="J778" s="8"/>
+      <c r="K778" s="8"/>
+    </row>
+    <row r="779">
+      <c r="J779" s="8"/>
+      <c r="K779" s="8"/>
+    </row>
+    <row r="780">
+      <c r="J780" s="8"/>
+      <c r="K780" s="8"/>
+    </row>
+    <row r="781">
+      <c r="J781" s="8"/>
+      <c r="K781" s="8"/>
+    </row>
+    <row r="782">
+      <c r="J782" s="8"/>
+      <c r="K782" s="8"/>
+    </row>
+    <row r="783">
+      <c r="J783" s="8"/>
+      <c r="K783" s="8"/>
+    </row>
+    <row r="784">
+      <c r="J784" s="8"/>
+      <c r="K784" s="8"/>
+    </row>
+    <row r="785">
+      <c r="J785" s="8"/>
+      <c r="K785" s="8"/>
+    </row>
+    <row r="786">
+      <c r="J786" s="8"/>
+      <c r="K786" s="8"/>
+    </row>
+    <row r="787">
+      <c r="J787" s="8"/>
+      <c r="K787" s="8"/>
+    </row>
+    <row r="788">
+      <c r="J788" s="8"/>
+      <c r="K788" s="8"/>
+    </row>
+    <row r="789">
+      <c r="J789" s="8"/>
+      <c r="K789" s="8"/>
+    </row>
+    <row r="790">
+      <c r="J790" s="8"/>
+      <c r="K790" s="8"/>
+    </row>
+    <row r="791">
+      <c r="J791" s="8"/>
+      <c r="K791" s="8"/>
+    </row>
+    <row r="792">
+      <c r="J792" s="8"/>
+      <c r="K792" s="8"/>
+    </row>
+    <row r="793">
+      <c r="J793" s="8"/>
+      <c r="K793" s="8"/>
+    </row>
+    <row r="794">
+      <c r="J794" s="8"/>
+      <c r="K794" s="8"/>
+    </row>
+    <row r="795">
+      <c r="J795" s="8"/>
+      <c r="K795" s="8"/>
+    </row>
+    <row r="796">
+      <c r="J796" s="8"/>
+      <c r="K796" s="8"/>
+    </row>
+    <row r="797">
+      <c r="J797" s="8"/>
+      <c r="K797" s="8"/>
+    </row>
+    <row r="798">
+      <c r="J798" s="8"/>
+      <c r="K798" s="8"/>
+    </row>
+    <row r="799">
+      <c r="J799" s="8"/>
+      <c r="K799" s="8"/>
+    </row>
+    <row r="800">
+      <c r="J800" s="8"/>
+      <c r="K800" s="8"/>
+    </row>
+    <row r="801">
+      <c r="J801" s="8"/>
+      <c r="K801" s="8"/>
+    </row>
+    <row r="802">
+      <c r="J802" s="8"/>
+      <c r="K802" s="8"/>
+    </row>
+    <row r="803">
+      <c r="J803" s="8"/>
+      <c r="K803" s="8"/>
+    </row>
+    <row r="804">
+      <c r="J804" s="8"/>
+      <c r="K804" s="8"/>
+    </row>
+    <row r="805">
+      <c r="J805" s="8"/>
+      <c r="K805" s="8"/>
+    </row>
+    <row r="806">
+      <c r="J806" s="8"/>
+      <c r="K806" s="8"/>
+    </row>
+    <row r="807">
+      <c r="J807" s="8"/>
+      <c r="K807" s="8"/>
+    </row>
+    <row r="808">
+      <c r="J808" s="8"/>
+      <c r="K808" s="8"/>
+    </row>
+    <row r="809">
+      <c r="J809" s="8"/>
+      <c r="K809" s="8"/>
+    </row>
+    <row r="810">
+      <c r="J810" s="8"/>
+      <c r="K810" s="8"/>
+    </row>
+    <row r="811">
+      <c r="J811" s="8"/>
+      <c r="K811" s="8"/>
+    </row>
+    <row r="812">
+      <c r="J812" s="8"/>
+      <c r="K812" s="8"/>
+    </row>
+    <row r="813">
+      <c r="J813" s="8"/>
+      <c r="K813" s="8"/>
+    </row>
+    <row r="814">
+      <c r="J814" s="8"/>
+      <c r="K814" s="8"/>
+    </row>
+    <row r="815">
+      <c r="J815" s="8"/>
+      <c r="K815" s="8"/>
+    </row>
+    <row r="816">
+      <c r="J816" s="8"/>
+      <c r="K816" s="8"/>
+    </row>
+    <row r="817">
+      <c r="J817" s="8"/>
+      <c r="K817" s="8"/>
+    </row>
+    <row r="818">
+      <c r="J818" s="8"/>
+      <c r="K818" s="8"/>
+    </row>
+    <row r="819">
+      <c r="J819" s="8"/>
+      <c r="K819" s="8"/>
+    </row>
+    <row r="820">
+      <c r="J820" s="8"/>
+      <c r="K820" s="8"/>
+    </row>
+    <row r="821">
+      <c r="J821" s="8"/>
+      <c r="K821" s="8"/>
+    </row>
+    <row r="822">
+      <c r="J822" s="8"/>
+      <c r="K822" s="8"/>
+    </row>
+    <row r="823">
+      <c r="J823" s="8"/>
+      <c r="K823" s="8"/>
+    </row>
+    <row r="824">
+      <c r="J824" s="8"/>
+      <c r="K824" s="8"/>
+    </row>
+    <row r="825">
+      <c r="J825" s="8"/>
+      <c r="K825" s="8"/>
+    </row>
+    <row r="826">
+      <c r="J826" s="8"/>
+      <c r="K826" s="8"/>
+    </row>
+    <row r="827">
+      <c r="J827" s="8"/>
+      <c r="K827" s="8"/>
+    </row>
+    <row r="828">
+      <c r="J828" s="8"/>
+      <c r="K828" s="8"/>
+    </row>
+    <row r="829">
+      <c r="J829" s="8"/>
+      <c r="K829" s="8"/>
+    </row>
+    <row r="830">
+      <c r="J830" s="8"/>
+      <c r="K830" s="8"/>
+    </row>
+    <row r="831">
+      <c r="J831" s="8"/>
+      <c r="K831" s="8"/>
+    </row>
+    <row r="832">
+      <c r="J832" s="8"/>
+      <c r="K832" s="8"/>
+    </row>
+    <row r="833">
+      <c r="J833" s="8"/>
+      <c r="K833" s="8"/>
+    </row>
+    <row r="834">
+      <c r="J834" s="8"/>
+      <c r="K834" s="8"/>
+    </row>
+    <row r="835">
+      <c r="J835" s="8"/>
+      <c r="K835" s="8"/>
+    </row>
+    <row r="836">
+      <c r="J836" s="8"/>
+      <c r="K836" s="8"/>
+    </row>
+    <row r="837">
+      <c r="J837" s="8"/>
+      <c r="K837" s="8"/>
+    </row>
+    <row r="838">
+      <c r="J838" s="8"/>
+      <c r="K838" s="8"/>
+    </row>
+    <row r="839">
+      <c r="J839" s="8"/>
+      <c r="K839" s="8"/>
+    </row>
+    <row r="840">
+      <c r="J840" s="8"/>
+      <c r="K840" s="8"/>
+    </row>
+    <row r="841">
+      <c r="J841" s="8"/>
+      <c r="K841" s="8"/>
+    </row>
+    <row r="842">
+      <c r="J842" s="8"/>
+      <c r="K842" s="8"/>
+    </row>
+    <row r="843">
+      <c r="J843" s="8"/>
+      <c r="K843" s="8"/>
+    </row>
+    <row r="844">
+      <c r="J844" s="8"/>
+      <c r="K844" s="8"/>
+    </row>
+    <row r="845">
+      <c r="J845" s="8"/>
+      <c r="K845" s="8"/>
+    </row>
+    <row r="846">
+      <c r="J846" s="8"/>
+      <c r="K846" s="8"/>
+    </row>
+    <row r="847">
+      <c r="J847" s="8"/>
+      <c r="K847" s="8"/>
+    </row>
+    <row r="848">
+      <c r="J848" s="8"/>
+      <c r="K848" s="8"/>
+    </row>
+    <row r="849">
+      <c r="J849" s="8"/>
+      <c r="K849" s="8"/>
+    </row>
+    <row r="850">
+      <c r="J850" s="8"/>
+      <c r="K850" s="8"/>
+    </row>
+    <row r="851">
+      <c r="J851" s="8"/>
+      <c r="K851" s="8"/>
+    </row>
+    <row r="852">
+      <c r="J852" s="8"/>
+      <c r="K852" s="8"/>
+    </row>
+    <row r="853">
+      <c r="J853" s="8"/>
+      <c r="K853" s="8"/>
+    </row>
+    <row r="854">
+      <c r="J854" s="8"/>
+      <c r="K854" s="8"/>
+    </row>
+    <row r="855">
+      <c r="J855" s="8"/>
+      <c r="K855" s="8"/>
+    </row>
+    <row r="856">
+      <c r="J856" s="8"/>
+      <c r="K856" s="8"/>
+    </row>
+    <row r="857">
+      <c r="J857" s="8"/>
+      <c r="K857" s="8"/>
+    </row>
+    <row r="858">
+      <c r="J858" s="8"/>
+      <c r="K858" s="8"/>
+    </row>
+    <row r="859">
+      <c r="J859" s="8"/>
+      <c r="K859" s="8"/>
+    </row>
+    <row r="860">
+      <c r="J860" s="8"/>
+      <c r="K860" s="8"/>
+    </row>
+    <row r="861">
+      <c r="J861" s="8"/>
+      <c r="K861" s="8"/>
+    </row>
+    <row r="862">
+      <c r="J862" s="8"/>
+      <c r="K862" s="8"/>
+    </row>
+    <row r="863">
+      <c r="J863" s="8"/>
+      <c r="K863" s="8"/>
+    </row>
+    <row r="864">
+      <c r="J864" s="8"/>
+      <c r="K864" s="8"/>
+    </row>
+    <row r="865">
+      <c r="J865" s="8"/>
+      <c r="K865" s="8"/>
+    </row>
+    <row r="866">
+      <c r="J866" s="8"/>
+      <c r="K866" s="8"/>
+    </row>
+    <row r="867">
+      <c r="J867" s="8"/>
+      <c r="K867" s="8"/>
+    </row>
+    <row r="868">
+      <c r="J868" s="8"/>
+      <c r="K868" s="8"/>
+    </row>
+    <row r="869">
+      <c r="J869" s="8"/>
+      <c r="K869" s="8"/>
+    </row>
+    <row r="870">
+      <c r="J870" s="8"/>
+      <c r="K870" s="8"/>
+    </row>
+    <row r="871">
+      <c r="J871" s="8"/>
+      <c r="K871" s="8"/>
+    </row>
+    <row r="872">
+      <c r="J872" s="8"/>
+      <c r="K872" s="8"/>
+    </row>
+    <row r="873">
+      <c r="J873" s="8"/>
+      <c r="K873" s="8"/>
+    </row>
+    <row r="874">
+      <c r="J874" s="8"/>
+      <c r="K874" s="8"/>
+    </row>
+    <row r="875">
+      <c r="J875" s="8"/>
+      <c r="K875" s="8"/>
+    </row>
+    <row r="876">
+      <c r="J876" s="8"/>
+      <c r="K876" s="8"/>
+    </row>
+    <row r="877">
+      <c r="J877" s="8"/>
+      <c r="K877" s="8"/>
+    </row>
+    <row r="878">
+      <c r="J878" s="8"/>
+      <c r="K878" s="8"/>
+    </row>
+    <row r="879">
+      <c r="J879" s="8"/>
+      <c r="K879" s="8"/>
+    </row>
+    <row r="880">
+      <c r="J880" s="8"/>
+      <c r="K880" s="8"/>
+    </row>
+    <row r="881">
+      <c r="J881" s="8"/>
+      <c r="K881" s="8"/>
+    </row>
+    <row r="882">
+      <c r="J882" s="8"/>
+      <c r="K882" s="8"/>
+    </row>
+    <row r="883">
+      <c r="J883" s="8"/>
+      <c r="K883" s="8"/>
+    </row>
+    <row r="884">
+      <c r="J884" s="8"/>
+      <c r="K884" s="8"/>
+    </row>
+    <row r="885">
+      <c r="J885" s="8"/>
+      <c r="K885" s="8"/>
+    </row>
+    <row r="886">
+      <c r="J886" s="8"/>
+      <c r="K886" s="8"/>
+    </row>
+    <row r="887">
+      <c r="J887" s="8"/>
+      <c r="K887" s="8"/>
+    </row>
+    <row r="888">
+      <c r="J888" s="8"/>
+      <c r="K888" s="8"/>
+    </row>
+    <row r="889">
+      <c r="J889" s="8"/>
+      <c r="K889" s="8"/>
+    </row>
+    <row r="890">
+      <c r="J890" s="8"/>
+      <c r="K890" s="8"/>
+    </row>
+    <row r="891">
+      <c r="J891" s="8"/>
+      <c r="K891" s="8"/>
+    </row>
+    <row r="892">
+      <c r="J892" s="8"/>
+      <c r="K892" s="8"/>
+    </row>
+    <row r="893">
+      <c r="J893" s="8"/>
+      <c r="K893" s="8"/>
+    </row>
+    <row r="894">
+      <c r="J894" s="8"/>
+      <c r="K894" s="8"/>
+    </row>
+    <row r="895">
+      <c r="J895" s="8"/>
+      <c r="K895" s="8"/>
+    </row>
+    <row r="896">
+      <c r="J896" s="8"/>
+      <c r="K896" s="8"/>
+    </row>
+    <row r="897">
+      <c r="J897" s="8"/>
+      <c r="K897" s="8"/>
+    </row>
+    <row r="898">
+      <c r="J898" s="8"/>
+      <c r="K898" s="8"/>
+    </row>
+    <row r="899">
+      <c r="J899" s="8"/>
+      <c r="K899" s="8"/>
+    </row>
+    <row r="900">
+      <c r="J900" s="8"/>
+      <c r="K900" s="8"/>
+    </row>
+    <row r="901">
+      <c r="J901" s="8"/>
+      <c r="K901" s="8"/>
+    </row>
+    <row r="902">
+      <c r="J902" s="8"/>
+      <c r="K902" s="8"/>
+    </row>
+    <row r="903">
+      <c r="J903" s="8"/>
+      <c r="K903" s="8"/>
+    </row>
+    <row r="904">
+      <c r="J904" s="8"/>
+      <c r="K904" s="8"/>
+    </row>
+    <row r="905">
+      <c r="J905" s="8"/>
+      <c r="K905" s="8"/>
+    </row>
+    <row r="906">
+      <c r="J906" s="8"/>
+      <c r="K906" s="8"/>
+    </row>
+    <row r="907">
+      <c r="J907" s="8"/>
+      <c r="K907" s="8"/>
+    </row>
+    <row r="908">
+      <c r="J908" s="8"/>
+      <c r="K908" s="8"/>
+    </row>
+    <row r="909">
+      <c r="J909" s="8"/>
+      <c r="K909" s="8"/>
+    </row>
+    <row r="910">
+      <c r="J910" s="8"/>
+      <c r="K910" s="8"/>
+    </row>
+    <row r="911">
+      <c r="J911" s="8"/>
+      <c r="K911" s="8"/>
+    </row>
+    <row r="912">
+      <c r="J912" s="8"/>
+      <c r="K912" s="8"/>
+    </row>
+    <row r="913">
+      <c r="J913" s="8"/>
+      <c r="K913" s="8"/>
+    </row>
+    <row r="914">
+      <c r="J914" s="8"/>
+      <c r="K914" s="8"/>
+    </row>
+    <row r="915">
+      <c r="J915" s="8"/>
+      <c r="K915" s="8"/>
+    </row>
+    <row r="916">
+      <c r="J916" s="8"/>
+      <c r="K916" s="8"/>
+    </row>
+    <row r="917">
+      <c r="J917" s="8"/>
+      <c r="K917" s="8"/>
+    </row>
+    <row r="918">
+      <c r="J918" s="8"/>
+      <c r="K918" s="8"/>
+    </row>
+    <row r="919">
+      <c r="J919" s="8"/>
+      <c r="K919" s="8"/>
+    </row>
+    <row r="920">
+      <c r="J920" s="8"/>
+      <c r="K920" s="8"/>
+    </row>
+    <row r="921">
+      <c r="J921" s="8"/>
+      <c r="K921" s="8"/>
+    </row>
+    <row r="922">
+      <c r="J922" s="8"/>
+      <c r="K922" s="8"/>
+    </row>
+    <row r="923">
+      <c r="J923" s="8"/>
+      <c r="K923" s="8"/>
+    </row>
+    <row r="924">
+      <c r="J924" s="8"/>
+      <c r="K924" s="8"/>
+    </row>
+    <row r="925">
+      <c r="J925" s="8"/>
+      <c r="K925" s="8"/>
+    </row>
+    <row r="926">
+      <c r="J926" s="8"/>
+      <c r="K926" s="8"/>
+    </row>
+    <row r="927">
+      <c r="J927" s="8"/>
+      <c r="K927" s="8"/>
+    </row>
+    <row r="928">
+      <c r="J928" s="8"/>
+      <c r="K928" s="8"/>
+    </row>
+    <row r="929">
+      <c r="J929" s="8"/>
+      <c r="K929" s="8"/>
+    </row>
+    <row r="930">
+      <c r="J930" s="8"/>
+      <c r="K930" s="8"/>
+    </row>
+    <row r="931">
+      <c r="J931" s="8"/>
+      <c r="K931" s="8"/>
+    </row>
+    <row r="932">
+      <c r="J932" s="8"/>
+      <c r="K932" s="8"/>
+    </row>
+    <row r="933">
+      <c r="J933" s="8"/>
+      <c r="K933" s="8"/>
+    </row>
+    <row r="934">
+      <c r="J934" s="8"/>
+      <c r="K934" s="8"/>
+    </row>
+    <row r="935">
+      <c r="J935" s="8"/>
+      <c r="K935" s="8"/>
+    </row>
+    <row r="936">
+      <c r="J936" s="8"/>
+      <c r="K936" s="8"/>
+    </row>
+    <row r="937">
+      <c r="J937" s="8"/>
+      <c r="K937" s="8"/>
+    </row>
+    <row r="938">
+      <c r="J938" s="8"/>
+      <c r="K938" s="8"/>
+    </row>
+    <row r="939">
+      <c r="J939" s="8"/>
+      <c r="K939" s="8"/>
+    </row>
+    <row r="940">
+      <c r="J940" s="8"/>
+      <c r="K940" s="8"/>
+    </row>
+    <row r="941">
+      <c r="J941" s="8"/>
+      <c r="K941" s="8"/>
+    </row>
+    <row r="942">
+      <c r="J942" s="8"/>
+      <c r="K942" s="8"/>
+    </row>
+    <row r="943">
+      <c r="J943" s="8"/>
+      <c r="K943" s="8"/>
+    </row>
+    <row r="944">
+      <c r="J944" s="8"/>
+      <c r="K944" s="8"/>
+    </row>
+    <row r="945">
+      <c r="J945" s="8"/>
+      <c r="K945" s="8"/>
+    </row>
+    <row r="946">
+      <c r="J946" s="8"/>
+      <c r="K946" s="8"/>
+    </row>
+    <row r="947">
+      <c r="J947" s="8"/>
+      <c r="K947" s="8"/>
+    </row>
+    <row r="948">
+      <c r="J948" s="8"/>
+      <c r="K948" s="8"/>
+    </row>
+    <row r="949">
+      <c r="J949" s="8"/>
+      <c r="K949" s="8"/>
+    </row>
+    <row r="950">
+      <c r="J950" s="8"/>
+      <c r="K950" s="8"/>
+    </row>
+    <row r="951">
+      <c r="J951" s="8"/>
+      <c r="K951" s="8"/>
+    </row>
+    <row r="952">
+      <c r="J952" s="8"/>
+      <c r="K952" s="8"/>
+    </row>
+    <row r="953">
+      <c r="J953" s="8"/>
+      <c r="K953" s="8"/>
+    </row>
+    <row r="954">
+      <c r="J954" s="8"/>
+      <c r="K954" s="8"/>
+    </row>
+    <row r="955">
+      <c r="J955" s="8"/>
+      <c r="K955" s="8"/>
+    </row>
+    <row r="956">
+      <c r="J956" s="8"/>
+      <c r="K956" s="8"/>
+    </row>
+    <row r="957">
+      <c r="J957" s="8"/>
+      <c r="K957" s="8"/>
+    </row>
+    <row r="958">
+      <c r="J958" s="8"/>
+      <c r="K958" s="8"/>
+    </row>
+    <row r="959">
+      <c r="J959" s="8"/>
+      <c r="K959" s="8"/>
+    </row>
+    <row r="960">
+      <c r="J960" s="8"/>
+      <c r="K960" s="8"/>
+    </row>
+    <row r="961">
+      <c r="J961" s="8"/>
+      <c r="K961" s="8"/>
+    </row>
+    <row r="962">
+      <c r="J962" s="8"/>
+      <c r="K962" s="8"/>
+    </row>
+    <row r="963">
+      <c r="J963" s="8"/>
+      <c r="K963" s="8"/>
+    </row>
+    <row r="964">
+      <c r="J964" s="8"/>
+      <c r="K964" s="8"/>
+    </row>
+    <row r="965">
+      <c r="J965" s="8"/>
+      <c r="K965" s="8"/>
+    </row>
+    <row r="966">
+      <c r="J966" s="8"/>
+      <c r="K966" s="8"/>
+    </row>
+    <row r="967">
+      <c r="J967" s="8"/>
+      <c r="K967" s="8"/>
+    </row>
+    <row r="968">
+      <c r="J968" s="8"/>
+      <c r="K968" s="8"/>
+    </row>
+    <row r="969">
+      <c r="J969" s="8"/>
+      <c r="K969" s="8"/>
+    </row>
+    <row r="970">
+      <c r="J970" s="8"/>
+      <c r="K970" s="8"/>
+    </row>
+    <row r="971">
+      <c r="J971" s="8"/>
+      <c r="K971" s="8"/>
+    </row>
+    <row r="972">
+      <c r="J972" s="8"/>
+      <c r="K972" s="8"/>
+    </row>
+    <row r="973">
+      <c r="J973" s="8"/>
+      <c r="K973" s="8"/>
+    </row>
+    <row r="974">
+      <c r="J974" s="8"/>
+      <c r="K974" s="8"/>
+    </row>
+    <row r="975">
+      <c r="J975" s="8"/>
+      <c r="K975" s="8"/>
+    </row>
+    <row r="976">
+      <c r="J976" s="8"/>
+      <c r="K976" s="8"/>
+    </row>
+    <row r="977">
+      <c r="J977" s="8"/>
+      <c r="K977" s="8"/>
+    </row>
+    <row r="978">
+      <c r="J978" s="8"/>
+      <c r="K978" s="8"/>
+    </row>
+    <row r="979">
+      <c r="J979" s="8"/>
+      <c r="K979" s="8"/>
+    </row>
+    <row r="980">
+      <c r="J980" s="8"/>
+      <c r="K980" s="8"/>
+    </row>
+    <row r="981">
+      <c r="J981" s="8"/>
+      <c r="K981" s="8"/>
+    </row>
+    <row r="982">
+      <c r="J982" s="8"/>
+      <c r="K982" s="8"/>
+    </row>
+    <row r="983">
+      <c r="J983" s="8"/>
+      <c r="K983" s="8"/>
+    </row>
+    <row r="984">
+      <c r="J984" s="8"/>
+      <c r="K984" s="8"/>
+    </row>
+    <row r="985">
+      <c r="J985" s="8"/>
+      <c r="K985" s="8"/>
+    </row>
+    <row r="986">
+      <c r="J986" s="8"/>
+      <c r="K986" s="8"/>
+    </row>
+    <row r="987">
+      <c r="J987" s="8"/>
+      <c r="K987" s="8"/>
+    </row>
+    <row r="988">
+      <c r="J988" s="8"/>
+      <c r="K988" s="8"/>
+    </row>
+    <row r="989">
+      <c r="J989" s="8"/>
+      <c r="K989" s="8"/>
+    </row>
+    <row r="990">
+      <c r="J990" s="8"/>
+      <c r="K990" s="8"/>
+    </row>
+    <row r="991">
+      <c r="J991" s="8"/>
+      <c r="K991" s="8"/>
+    </row>
+    <row r="992">
+      <c r="J992" s="8"/>
+      <c r="K992" s="8"/>
+    </row>
+    <row r="993">
+      <c r="J993" s="8"/>
+      <c r="K993" s="8"/>
+    </row>
+    <row r="994">
+      <c r="J994" s="8"/>
+      <c r="K994" s="8"/>
+    </row>
+    <row r="995">
+      <c r="J995" s="8"/>
+      <c r="K995" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
